--- a/QuantLibXL/Data2/XLS/AUD/AUD_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD/AUD_MxContributor.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="105">
   <si>
     <t>BID</t>
   </si>
@@ -1384,7 +1384,22 @@
     <cellStyle name="Valuta (0)_AZIONI" xfId="11"/>
     <cellStyle name="Valuta_AZIONI" xfId="12"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1423,134 +1438,134 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.0001111110000003</v>
+        <v>2.0009032680000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X7" s="7"/>
       </tp>
       <tp>
-        <v>1.9999999980000001</v>
+        <v>2.0000000029999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X9" s="7"/>
       </tp>
       <tp>
-        <v>2.0001111110000003</v>
+        <v>2.0009032680000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X8" s="7"/>
       </tp>
       <tp>
-        <v>2.0001510929999999</v>
+        <v>2.0015012159999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X6" s="7"/>
       </tp>
       <tp>
-        <v>2.6779999999999999</v>
+        <v>2.2250000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X34" s="7"/>
       </tp>
       <tp>
-        <v>1.96</v>
+        <v>1.8675000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X17" s="7"/>
       </tp>
       <tp>
-        <v>2.8130000000000002</v>
+        <v>2.3530000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X35" s="7"/>
       </tp>
       <tp>
-        <v>2.39</v>
+        <v>1.96</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X32" s="7"/>
       </tp>
       <tp>
-        <v>1.9735</v>
+        <v>1.915</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X15" s="7"/>
       </tp>
       <tp>
-        <v>2.5430000000000001</v>
+        <v>2.0950000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X33" s="7"/>
       </tp>
       <tp>
-        <v>1.9635</v>
+        <v>1.8925000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X16" s="7"/>
       </tp>
       <tp>
-        <v>2.08</v>
+        <v>1.7650000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X30" s="7"/>
       </tp>
       <tp>
-        <v>1.9925000000000002</v>
+        <v>1.9575</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X13" s="7"/>
       </tp>
       <tp>
-        <v>2.2400000000000002</v>
+        <v>1.845</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X31" s="7"/>
       </tp>
       <tp>
-        <v>1.9825000000000002</v>
+        <v>1.9289999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X14" s="7"/>
       </tp>
       <tp>
-        <v>1.958</v>
+        <v>1.7730000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X28" s="7"/>
       </tp>
       <tp>
-        <v>1.9975000000000001</v>
+        <v>1.9849999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X12" s="7"/>
       </tp>
       <tp>
-        <v>2.9079999999999999</v>
+        <v>2.4449999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X36" s="7"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2.5350000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X37" s="7"/>
       </tp>
       <tp>
-        <v>1.9475</v>
+        <v>1.81</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X18" s="7"/>
       </tp>
       <tp>
-        <v>2.0004564629999999</v>
+        <v>1.7450000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON18MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W29" s="7"/>
       </tp>
       <tp>
-        <v>2.0004564629999999</v>
+        <v>1.7450000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON18MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1559,42 +1574,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.5350000000000001</v>
+        <v>3.0579999999999998</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W43" s="7"/>
       </tp>
       <tp>
-        <v>3.48</v>
+        <v>3.03</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W41" s="7"/>
       </tp>
       <tp>
-        <v>3.5180000000000002</v>
+        <v>3.0680000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W42" s="7"/>
       </tp>
       <tp>
-        <v>3.0950000000000002</v>
+        <v>2.6280000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W38" s="7"/>
       </tp>
       <tp>
-        <v>3.238</v>
+        <v>2.7549999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W39" s="7"/>
       </tp>
       <tp>
-        <v>3.38</v>
+        <v>2.8980000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1603,164 +1618,162 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.0001111110000003</v>
+        <v>2.0009032680000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W7" s="7"/>
       </tp>
       <tp>
-        <v>1.9999999980000001</v>
+        <v>2.0000000029999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W9" s="7"/>
       </tp>
       <tp>
-        <v>2.0001111110000003</v>
+        <v>2.0009032680000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W8" s="7"/>
       </tp>
       <tp>
-        <v>2.0001510929999999</v>
+        <v>2.0015012159999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W6" s="7"/>
       </tp>
       <tp>
-        <v>2.6779999999999999</v>
+        <v>2.2250000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W34" s="7"/>
       </tp>
       <tp>
-        <v>1.96</v>
+        <v>1.8675000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W17" s="7"/>
       </tp>
       <tp>
-        <v>2.8130000000000002</v>
+        <v>2.3530000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W35" s="7"/>
       </tp>
       <tp>
-        <v>2.39</v>
+        <v>1.96</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W32" s="7"/>
       </tp>
       <tp>
-        <v>1.9735</v>
+        <v>1.915</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W15" s="7"/>
       </tp>
       <tp>
-        <v>2.5430000000000001</v>
+        <v>2.0950000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W33" s="7"/>
       </tp>
       <tp>
-        <v>1.9635</v>
+        <v>1.8925000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W16" s="7"/>
       </tp>
       <tp>
-        <v>2.08</v>
+        <v>1.7650000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W30" s="7"/>
       </tp>
       <tp>
-        <v>1.9925000000000002</v>
+        <v>1.9575</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W13" s="7"/>
       </tp>
       <tp>
-        <v>2.2400000000000002</v>
+        <v>1.845</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W31" s="7"/>
       </tp>
       <tp>
-        <v>1.9825000000000002</v>
+        <v>1.9289999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W14" s="7"/>
       </tp>
       <tp>
-        <v>1.958</v>
+        <v>1.7730000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W28" s="7"/>
       </tp>
       <tp>
-        <v>1.9975000000000001</v>
+        <v>1.9849999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W12" s="7"/>
       </tp>
       <tp>
-        <v>2.9079999999999999</v>
+        <v>2.4449999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W36" s="7"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2.5350000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W37" s="7"/>
       </tp>
       <tp>
-        <v>1.9475</v>
+        <v>1.81</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W18" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.0950000000000002</v>
+        <v>2.6280000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X38" s="7"/>
       </tp>
       <tp>
-        <v>3.238</v>
+        <v>2.7549999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X39" s="7"/>
       </tp>
       <tp>
-        <v>3.38</v>
+        <v>2.8980000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X40" s="7"/>
       </tp>
       <tp>
-        <v>3.48</v>
+        <v>3.03</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X41" s="7"/>
       </tp>
       <tp>
-        <v>3.5180000000000002</v>
+        <v>3.0680000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X42" s="7"/>
       </tp>
       <tp>
-        <v>3.5350000000000001</v>
+        <v>3.0579999999999998</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1769,145 +1782,163 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.263587727</v>
+        <v>2.3490979630000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
       <tp>
-        <v>2.2639271750000001</v>
+        <v>2.3457914930000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC9" s="7"/>
       </tp>
       <tp>
-        <v>2.2636437330000003</v>
+        <v>2.3486473750000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC8" s="7"/>
       </tp>
       <tp>
-        <v>2.2635412560000003</v>
+        <v>2.3509873739999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
       <tp>
-        <v>2.2397261159999999</v>
+        <v>2.2146096160000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
       <tp>
-        <v>2.247773461</v>
+        <v>2.2588482600000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC15" s="7"/>
       </tp>
       <tp>
-        <v>2.240154671</v>
+        <v>2.2367873440000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC16" s="7"/>
       </tp>
       <tp>
-        <v>2.2639082260000003</v>
+        <v>2.3415753600000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC10" s="7"/>
       </tp>
       <tp>
-        <v>2.260937888</v>
+        <v>2.299122026</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC13" s="7"/>
       </tp>
       <tp>
-        <v>2.2638533560000003</v>
+        <v>2.3366904179999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC11" s="7"/>
       </tp>
       <tp>
-        <v>2.2536543230000001</v>
+        <v>2.275073049</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
       <tp>
-        <v>2.2637287990000003</v>
+        <v>2.3287574950000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC12" s="7"/>
       </tp>
       <tp>
-        <v>3.5512351680000003</v>
+        <v>3.1197307589999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z41" s="7"/>
       </tp>
       <tp>
-        <v>3.5906988930000003</v>
+        <v>3.1567853499999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z42" s="7"/>
       </tp>
       <tp>
-        <v>3.6079739650000002</v>
+        <v>3.1469489259999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z43" s="7"/>
       </tp>
       <tp>
-        <v>3.3120358890000001</v>
+        <v>2.8492323960000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z39" s="7"/>
       </tp>
       <tp>
-        <v>3.1701347870000003</v>
+        <v>2.7206662239999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z38" s="7"/>
       </tp>
       <tp>
-        <v>3.4538602110000003</v>
+        <v>2.987595711</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z40" s="7"/>
       </tp>
       <tp>
-        <v>2.562013082</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB36" s="7"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB37" s="7"/>
+      </tp>
+      <tp>
+        <v>2.1544548699999999</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB32" s="7"/>
       </tp>
       <tp>
-        <v>2.7110411070000002</v>
+        <v>2.2912255520000002</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB33" s="7"/>
       </tp>
       <tp>
-        <v>2.9717299810000002</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB34" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5434886589999999</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB35" s="7"/>
       </tp>
       <tp>
-        <v>2.145</v>
+        <v>1.9775</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB28" s="7"/>
       </tp>
       <tp>
-        <v>2.2600000000000002</v>
+        <v>1.9675</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB30" s="7"/>
       </tp>
       <tp>
-        <v>2.4125000000000001</v>
+        <v>2.04</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB31" s="7"/>
@@ -1915,91 +1946,109 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.6303461620000004</v>
+        <v>3.2114740529999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB41" s="7"/>
       </tp>
       <tp>
-        <v>3.6700333240000003</v>
+        <v>3.2487188520000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB42" s="7"/>
       </tp>
       <tp>
-        <v>3.6874076150000001</v>
+        <v>3.2388300339999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB43" s="7"/>
       </tp>
       <tp>
-        <v>3.389808178</v>
+        <v>2.9396551679999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB39" s="7"/>
       </tp>
       <tp>
-        <v>3.2484107780000002</v>
+        <v>2.8117580000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB38" s="7"/>
       </tp>
       <tp>
-        <v>3.5324118410000001</v>
+        <v>3.078684032</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB40" s="7"/>
       </tp>
       <tp>
-        <v>2.028944488</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD1M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Z36" s="7"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD1M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Z37" s="7"/>
+      </tp>
+      <tp>
+        <v>1.8788726570000001</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z27" s="7"/>
       </tp>
       <tp>
-        <v>2.4681981480000004</v>
+        <v>2.0409625249999999</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z32" s="7"/>
       </tp>
       <tp>
-        <v>2.622840686</v>
+        <v>2.182254081</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z33" s="7"/>
       </tp>
       <tp>
-        <v>2.0436093570000002</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD1M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Z34" s="7"/>
+      </tp>
+      <tp>
+        <v>1.938398641</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z26" s="7"/>
       </tp>
       <tp>
-        <v>2.8898337250000004</v>
+        <v>2.4472911530000001</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z35" s="7"/>
       </tp>
       <tp>
-        <v>2.0265297879999999</v>
+        <v>1.8396207069999999</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z28" s="7"/>
       </tp>
       <tp>
-        <v>2.1523436820000001</v>
+        <v>1.8358853339999999</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z30" s="7"/>
       </tp>
       <tp>
-        <v>2.3130218770000002</v>
+        <v>1.919391624</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z31" s="7"/>
       </tp>
       <tp>
-        <v>2.0829689830000002</v>
+        <v>1.9981613380000001</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z25" s="7"/>
@@ -2007,169 +2056,189 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.2135252830000001</v>
+        <v>2.2105278450000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA7" s="7"/>
       </tp>
       <tp>
-        <v>2.212868549</v>
+        <v>2.2072676150000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA9" s="7"/>
       </tp>
       <tp>
-        <v>2.2134423620000003</v>
+        <v>2.2100861510000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA8" s="7"/>
       </tp>
       <tp>
-        <v>2.213610385</v>
+        <v>2.2123908330000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA6" s="7"/>
       </tp>
       <tp>
-        <v>2.2118065499999999</v>
+        <v>2.2030457170000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA10" s="7"/>
       </tp>
       <tp>
-        <v>2.2022494450000001</v>
+        <v>2.1612904450000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA13" s="7"/>
       </tp>
       <tp>
-        <v>2.2106781610000001</v>
+        <v>2.198217783</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA11" s="7"/>
       </tp>
       <tp>
-        <v>2.1908457340000003</v>
+        <v>2.1365753679999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA14" s="7"/>
       </tp>
       <tp>
-        <v>2.2090140380000003</v>
+        <v>2.1901193999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA12" s="7"/>
       </tp>
       <tp>
-        <v>2.67</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD36" s="7"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD37" s="7"/>
+      </tp>
+      <tp>
+        <v>2.2675000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD32" s="7"/>
       </tp>
       <tp>
-        <v>2.8175000000000003</v>
+        <v>2.3975</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD33" s="7"/>
       </tp>
       <tp>
-        <v>3.0725000000000002</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD34" s="7"/>
+      </tp>
+      <tp>
+        <v>2.6437499999999998</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD35" s="7"/>
       </tp>
       <tp>
-        <v>2.2420684199999998</v>
+        <v>2.116364178</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD28" s="7"/>
       </tp>
       <tp>
-        <v>2.373751097</v>
+        <v>2.1010469860000001</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD30" s="7"/>
       </tp>
       <tp>
-        <v>2.5222573980000003</v>
+        <v>2.1634108369999998</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD31" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.1272805640000003</v>
+        <v>2.0624355620000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y7" s="7"/>
       </tp>
       <tp>
-        <v>2.1247104510000003</v>
+        <v>2.0599296630000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y9" s="7"/>
       </tp>
       <tp>
-        <v>2.1269200320000001</v>
+        <v>2.0621026339999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y8" s="7"/>
       </tp>
       <tp>
-        <v>2.1276424199999999</v>
+        <v>2.0638675040000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y6" s="7"/>
       </tp>
       <tp>
-        <v>2.1219390680000001</v>
+        <v>2.0564710310000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y10" s="7"/>
       </tp>
       <tp>
-        <v>2.1192550510000001</v>
+        <v>2.0525177559999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y11" s="7"/>
       </tp>
       <tp>
-        <v>2.1148010859999999</v>
+        <v>2.045442387</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y12" s="7"/>
       </tp>
       <tp>
-        <v>3.7025000000000001</v>
+        <v>3.2774999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD41" s="7"/>
       </tp>
       <tp>
-        <v>3.7375000000000003</v>
+        <v>3.3075000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD42" s="7"/>
       </tp>
       <tp>
-        <v>3.75</v>
+        <v>3.29</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD43" s="7"/>
       </tp>
       <tp>
-        <v>3.4750000000000001</v>
+        <v>3.0249999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD39" s="7"/>
       </tp>
       <tp>
-        <v>3.34</v>
+        <v>2.9050000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD38" s="7"/>
       </tp>
       <tp>
-        <v>3.61</v>
+        <v>3.1524999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD40" s="7"/>
@@ -2177,37 +2246,55 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.0725000000000002</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AC37" s="7"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AC36" s="7"/>
+      </tp>
+      <tp>
+        <v>2.6437499999999998</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC35" s="7"/>
       </tp>
       <tp>
-        <v>2.8175000000000003</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AC34" s="7"/>
+      </tp>
+      <tp>
+        <v>2.3975</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC33" s="7"/>
       </tp>
       <tp>
-        <v>2.67</v>
+        <v>2.2675000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC32" s="7"/>
       </tp>
       <tp>
-        <v>2.5222573980000003</v>
+        <v>2.1634108369999998</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC31" s="7"/>
       </tp>
       <tp>
-        <v>2.373751097</v>
+        <v>2.1010469860000001</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC30" s="7"/>
       </tp>
       <tp>
-        <v>2.2420684199999998</v>
+        <v>2.116364178</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC28" s="7"/>
@@ -2215,369 +2302,403 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.028944488</v>
+        <v>1.8788726570000001</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y27" s="7"/>
       </tp>
       <tp>
-        <v>2.8898337250000004</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD1M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y37" s="7"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD1M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y36" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4472911530000001</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y35" s="7"/>
       </tp>
       <tp>
-        <v>2.0436093570000002</v>
+        <v>1.938398641</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y26" s="7"/>
       </tp>
       <tp>
-        <v>2.622840686</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD1M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y34" s="7"/>
+      </tp>
+      <tp>
+        <v>2.182254081</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y33" s="7"/>
       </tp>
       <tp>
-        <v>2.4681981480000004</v>
+        <v>2.0409625249999999</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y32" s="7"/>
       </tp>
       <tp>
-        <v>2.0829689830000002</v>
+        <v>1.9981613380000001</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y25" s="7"/>
       </tp>
       <tp>
-        <v>2.3130218770000002</v>
+        <v>1.919391624</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y31" s="7"/>
       </tp>
       <tp>
-        <v>2.1523436820000001</v>
+        <v>1.8358853339999999</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y30" s="7"/>
       </tp>
       <tp>
-        <v>2.0265297879999999</v>
+        <v>1.8396207069999999</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y28" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.9717299810000002</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA37" s="7"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA36" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5434886589999999</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA35" s="7"/>
       </tp>
       <tp>
-        <v>2.7110411070000002</v>
+        <v>0</v>
+        <stp/>
+        <stp>_x0008_AUD3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA34" s="7"/>
+      </tp>
+      <tp>
+        <v>2.2912255520000002</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA33" s="7"/>
       </tp>
       <tp>
-        <v>2.562013082</v>
+        <v>2.1544548699999999</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA32" s="7"/>
       </tp>
       <tp>
-        <v>2.4125000000000001</v>
+        <v>2.04</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA31" s="7"/>
       </tp>
       <tp>
-        <v>2.2600000000000002</v>
+        <v>1.9675</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA30" s="7"/>
       </tp>
       <tp>
-        <v>2.145</v>
+        <v>1.9775</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA28" s="7"/>
       </tp>
       <tp>
-        <v>3.6303461620000004</v>
+        <v>3.2114740529999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA41" s="7"/>
       </tp>
       <tp>
-        <v>3.6700333240000003</v>
+        <v>3.2487188520000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA42" s="7"/>
       </tp>
       <tp>
-        <v>3.6874076150000001</v>
+        <v>3.2388300339999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA43" s="7"/>
       </tp>
       <tp>
-        <v>3.2484107780000002</v>
+        <v>2.8117580000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA38" s="7"/>
       </tp>
       <tp>
-        <v>3.389808178</v>
+        <v>2.9396551679999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA39" s="7"/>
       </tp>
       <tp>
-        <v>3.5324118410000001</v>
+        <v>3.078684032</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA40" s="7"/>
       </tp>
       <tp>
-        <v>3.5512351680000003</v>
+        <v>3.1197307589999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y41" s="7"/>
       </tp>
       <tp>
-        <v>3.5906988930000003</v>
+        <v>3.1567853499999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y42" s="7"/>
       </tp>
       <tp>
-        <v>3.6079739650000002</v>
+        <v>3.1469489259999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y43" s="7"/>
       </tp>
       <tp>
-        <v>3.1701347870000003</v>
+        <v>2.7206662239999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y38" s="7"/>
       </tp>
       <tp>
-        <v>3.3120358890000001</v>
+        <v>2.8492323960000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y39" s="7"/>
       </tp>
       <tp>
-        <v>3.4538602110000003</v>
+        <v>2.987595711</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y40" s="7"/>
       </tp>
       <tp>
-        <v>2.263587727</v>
+        <v>2.3490979630000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD7" s="7"/>
       </tp>
       <tp>
-        <v>2.2639271750000001</v>
+        <v>2.3457914930000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD9" s="7"/>
       </tp>
       <tp>
-        <v>2.2636437330000003</v>
+        <v>2.3486473750000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD8" s="7"/>
       </tp>
       <tp>
-        <v>2.2635412560000003</v>
+        <v>2.3509873739999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD6" s="7"/>
       </tp>
       <tp>
-        <v>2.2397261159999999</v>
+        <v>2.2146096160000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD17" s="7"/>
       </tp>
       <tp>
-        <v>2.247773461</v>
+        <v>2.2588482600000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD15" s="7"/>
       </tp>
       <tp>
-        <v>2.240154671</v>
+        <v>2.2367873440000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD16" s="7"/>
       </tp>
       <tp>
-        <v>2.2639082260000003</v>
+        <v>2.3415753600000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD10" s="7"/>
       </tp>
       <tp>
-        <v>2.260937888</v>
+        <v>2.299122026</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD13" s="7"/>
       </tp>
       <tp>
-        <v>2.2638533560000003</v>
+        <v>2.3366904179999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD11" s="7"/>
       </tp>
       <tp>
-        <v>2.2536543230000001</v>
+        <v>2.275073049</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD14" s="7"/>
       </tp>
       <tp>
-        <v>2.2637287990000003</v>
+        <v>2.3287574950000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD12" s="7"/>
       </tp>
       <tp>
-        <v>3.7025000000000001</v>
+        <v>3.2774999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC41" s="7"/>
       </tp>
       <tp>
-        <v>3.7375000000000003</v>
+        <v>3.3075000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC42" s="7"/>
       </tp>
       <tp>
-        <v>3.75</v>
+        <v>3.29</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC43" s="7"/>
       </tp>
       <tp>
-        <v>3.34</v>
+        <v>2.9050000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC38" s="7"/>
       </tp>
       <tp>
-        <v>3.4750000000000001</v>
+        <v>3.0249999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC39" s="7"/>
       </tp>
       <tp>
-        <v>3.61</v>
+        <v>3.1524999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC40" s="7"/>
       </tp>
       <tp>
-        <v>2.1272805640000003</v>
+        <v>2.0624355620000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z7" s="7"/>
       </tp>
       <tp>
-        <v>2.1247104510000003</v>
+        <v>2.0599296630000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z9" s="7"/>
       </tp>
       <tp>
-        <v>2.1269200320000001</v>
+        <v>2.0621026339999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z8" s="7"/>
       </tp>
       <tp>
-        <v>2.1276424199999999</v>
+        <v>2.0638675040000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z6" s="7"/>
       </tp>
       <tp>
-        <v>2.1219390680000001</v>
+        <v>2.0564710310000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z10" s="7"/>
       </tp>
       <tp>
-        <v>2.1192550510000001</v>
+        <v>2.0525177559999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z11" s="7"/>
       </tp>
       <tp>
-        <v>2.1148010859999999</v>
+        <v>2.045442387</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z12" s="7"/>
       </tp>
       <tp>
-        <v>2.2135252830000001</v>
+        <v>2.2105278450000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB7" s="7"/>
       </tp>
       <tp>
-        <v>2.212868549</v>
+        <v>2.2072676150000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB9" s="7"/>
       </tp>
       <tp>
-        <v>2.2134423620000003</v>
+        <v>2.2100861510000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB8" s="7"/>
       </tp>
       <tp>
-        <v>2.213610385</v>
+        <v>2.2123908330000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB6" s="7"/>
       </tp>
       <tp>
-        <v>2.2118065499999999</v>
+        <v>2.2030457170000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB10" s="7"/>
       </tp>
       <tp>
-        <v>2.2022494450000001</v>
+        <v>2.1612904450000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB13" s="7"/>
       </tp>
       <tp>
-        <v>2.2106781610000001</v>
+        <v>2.198217783</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB11" s="7"/>
       </tp>
       <tp>
-        <v>2.1908457340000003</v>
+        <v>2.1365753679999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB14" s="7"/>
       </tp>
       <tp>
-        <v>2.2090140380000003</v>
+        <v>2.1901193999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB12" s="7"/>
@@ -2585,76 +2706,76 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>97.840956979000012</v>
+        <v>98.084999999999994</v>
         <stp/>
         <stp>_x0007_AUD3MH6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB20" s="7"/>
+      </tp>
+      <tp>
+        <v>98.035929584000002</v>
+        <stp/>
+        <stp>_x0007_AUD3MH7_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB24" s="7"/>
+      </tp>
+      <tp>
+        <v>98.144999999999996</v>
+        <stp/>
+        <stp>_x0007_AUD3MM6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB21" s="7"/>
+      </tp>
+      <tp>
+        <v>98.079597332999995</v>
+        <stp/>
+        <stp>_x0007_AUD3MZ6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB23" s="7"/>
+      </tp>
+      <tp>
+        <v>97.954999999999998</v>
+        <stp/>
+        <stp>_x0007_AUD3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB19" s="7"/>
+      </tp>
+      <tp>
+        <v>98.114405005999998</v>
+        <stp/>
+        <stp>_x0007_AUD3MU6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB22" s="7"/>
       </tp>
       <tp>
-        <v>97.736960541000002</v>
+        <v>98.114405005999998</v>
         <stp/>
-        <stp>_x0007_AUD3MM6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB23" s="7"/>
+        <stp>_x0007_AUD3MU6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA22" s="7"/>
       </tp>
       <tp>
-        <v>97.835000000000008</v>
+        <v>97.954999999999998</v>
         <stp/>
-        <stp>_x0007_AUD3MM5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB19" s="7"/>
+        <stp>_x0007_AUD3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA19" s="7"/>
       </tp>
       <tp>
-        <v>97.875</v>
+        <v>98.079597332999995</v>
         <stp/>
-        <stp>_x0007_AUD3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB21" s="7"/>
+        <stp>_x0007_AUD3MZ6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA23" s="7"/>
       </tp>
       <tp>
-        <v>97.625344307000006</v>
+        <v>98.035929584000002</v>
         <stp/>
-        <stp>_x0007_AUD3MU6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB24" s="7"/>
+        <stp>_x0007_AUD3MH7_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA24" s="7"/>
       </tp>
       <tp>
-        <v>97.88</v>
+        <v>98.084999999999994</v>
         <stp/>
-        <stp>_x0007_AUD3MU5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB20" s="7"/>
-      </tp>
-      <tp>
-        <v>97.88</v>
-        <stp/>
-        <stp>_x0007_AUD3MU5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0007_AUD3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA20" s="7"/>
       </tp>
       <tp>
-        <v>97.625344307000006</v>
-        <stp/>
-        <stp>_x0007_AUD3MU6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA24" s="7"/>
-      </tp>
-      <tp>
-        <v>97.875</v>
-        <stp/>
-        <stp>_x0007_AUD3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA21" s="7"/>
-      </tp>
-      <tp>
-        <v>97.840956979000012</v>
-        <stp/>
-        <stp>_x0007_AUD3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA22" s="7"/>
-      </tp>
-      <tp>
-        <v>97.835000000000008</v>
-        <stp/>
-        <stp>_x0007_AUD3MM5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA19" s="7"/>
-      </tp>
-      <tp>
-        <v>97.736960541000002</v>
+        <v>98.144999999999996</v>
         <stp/>
         <stp>_x0007_AUD3MM6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA23" s="7"/>
+        <tr r="AA21" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2686,7 +2807,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>60</v>
+            <v>4</v>
           </cell>
         </row>
       </sheetData>
@@ -2728,7 +2849,7 @@
       <sheetData sheetId="6">
         <row r="7">
           <cell r="D7" t="str">
-            <v>Q5</v>
+            <v>Z5</v>
           </cell>
         </row>
       </sheetData>
@@ -2795,14 +2916,14 @@
       <sheetData sheetId="0">
         <row r="21">
           <cell r="I21">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="21">
           <cell r="I21">
-            <v>1.9830775658463886E-2</v>
+            <v>1.9298678351978453E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3224,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="68">
-        <v>42136.697581018518</v>
+        <v>42278.477800925924</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="2"/>
@@ -3257,7 +3378,7 @@
       </c>
       <c r="D5" s="68">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="2"/>
@@ -3290,7 +3411,7 @@
       </c>
       <c r="D6" s="69">
         <f>[1]!TriggerCounter</f>
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="2"/>
@@ -3323,7 +3444,7 @@
       </c>
       <c r="D7" s="69">
         <f>[2]!TriggerCounter</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="2"/>
@@ -3762,7 +3883,7 @@
       </c>
       <c r="D21" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="E21" s="67"/>
       <c r="F21" s="2"/>
@@ -6530,11 +6651,11 @@
       </c>
       <c r="K6" s="14">
         <f>'ON Pricing'!H6*100</f>
-        <v>2.0001511019915874</v>
+        <v>2.0015012149047218</v>
       </c>
       <c r="L6" s="14">
         <f>K6</f>
-        <v>2.0001511019915874</v>
+        <v>2.0015012149047218</v>
       </c>
       <c r="M6" s="122" t="str">
         <f t="shared" ref="M6:M12" si="0">Currency&amp;$M$4&amp;D6&amp;"="</f>
@@ -6542,11 +6663,11 @@
       </c>
       <c r="N6" s="123">
         <f>'1M Pricing'!H6*100</f>
-        <v>2.1171956381757449</v>
+        <v>2.1957947280181149</v>
       </c>
       <c r="O6" s="123">
         <f>N6</f>
-        <v>2.1171956381757449</v>
+        <v>2.1957947280181149</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" ref="P6:P14" si="1">Currency&amp;$P$4&amp;D6&amp;"="</f>
@@ -6554,11 +6675,11 @@
       </c>
       <c r="Q6" s="14">
         <f>'3M Pricing'!H6*100</f>
-        <v>2.2026937443966985</v>
+        <v>2.2264558234662144</v>
       </c>
       <c r="R6" s="14">
         <f>Q6</f>
-        <v>2.2026937443966985</v>
+        <v>2.2264558234662144</v>
       </c>
       <c r="S6" s="13" t="str">
         <f t="shared" ref="S6:S17" si="2">Currency&amp;$S$4&amp;D6&amp;"="</f>
@@ -6566,46 +6687,46 @@
       </c>
       <c r="T6" s="14">
         <f>'6M Pricing'!H6*100</f>
-        <v>2.2565312915547673</v>
+        <v>2.3864485472947083</v>
       </c>
       <c r="U6" s="14">
         <f>T6</f>
-        <v>2.2565312915547673</v>
+        <v>2.3864485472947083</v>
       </c>
       <c r="V6" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$J6,BID)-K6)</f>
-        <v>8.9915874745827296E-9</v>
+        <v>1.0952780904460724E-9</v>
       </c>
       <c r="X6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$J6,ASK)-L6)</f>
-        <v>8.9915874745827296E-9</v>
+        <v>1.0952780904460724E-9</v>
       </c>
       <c r="Y6" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>1.0446781824255069E-2</v>
+        <v>0.13192722401811485</v>
       </c>
       <c r="Z6" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>1.0446781824255069E-2</v>
+        <v>0.13192722401811485</v>
       </c>
       <c r="AA6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P6,BID)-Q6)</f>
-        <v>1.0916640603301442E-2</v>
+        <v>1.4064990466214233E-2</v>
       </c>
       <c r="AB6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P6,ASK)-R6)</f>
-        <v>1.0916640603301442E-2</v>
+        <v>1.4064990466214233E-2</v>
       </c>
       <c r="AC6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,BID)-T6)</f>
-        <v>7.0099644452330523E-3</v>
+        <v>3.5461173294708548E-2</v>
       </c>
       <c r="AD6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,ASK)-U6)</f>
-        <v>7.0099644452330523E-3</v>
+        <v>3.5461173294708548E-2</v>
       </c>
       <c r="AE6" s="41" t="s">
         <v>70</v>
@@ -6667,11 +6788,11 @@
       </c>
       <c r="K7" s="16">
         <f>'ON Pricing'!H7*100</f>
-        <v>2.0001111196568111</v>
+        <v>2.0009032669434381</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L8" si="3">K7</f>
-        <v>2.0001111196568111</v>
+        <v>2.0009032669434381</v>
       </c>
       <c r="M7" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6679,11 +6800,11 @@
       </c>
       <c r="N7" s="126">
         <f>'1M Pricing'!H7*100</f>
-        <v>2.1168950010165171</v>
+        <v>2.1902851663441916</v>
       </c>
       <c r="O7" s="126">
         <f t="shared" ref="O7:O8" si="4">N7</f>
-        <v>2.1168950010165171</v>
+        <v>2.1902851663441916</v>
       </c>
       <c r="P7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6691,11 +6812,11 @@
       </c>
       <c r="Q7" s="16">
         <f>'3M Pricing'!H7*100</f>
-        <v>2.202663781853774</v>
+        <v>2.2286181616362382</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" ref="R7:R8" si="5">Q7</f>
-        <v>2.202663781853774</v>
+        <v>2.2286181616362382</v>
       </c>
       <c r="S7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6703,46 +6824,46 @@
       </c>
       <c r="T7" s="16">
         <f>'6M Pricing'!H7*100</f>
-        <v>2.2566096923109908</v>
+        <v>2.3841634612456906</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" ref="U7:U8" si="6">T7</f>
-        <v>2.2566096923109908</v>
+        <v>2.3841634612456906</v>
       </c>
       <c r="V7" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J7,BID)-K7)</f>
-        <v>8.6568108237372599E-9</v>
+        <v>1.0565619490421341E-9</v>
       </c>
       <c r="X7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J7,ASK)-L7)</f>
-        <v>8.6568108237372599E-9</v>
+        <v>1.0565619490421341E-9</v>
       </c>
       <c r="Y7" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>1.0385562983483254E-2</v>
+        <v>0.12784960434419146</v>
       </c>
       <c r="Z7" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>1.0385562983483254E-2</v>
+        <v>0.12784960434419146</v>
       </c>
       <c r="AA7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P7,BID)-Q7)</f>
-        <v>1.0861501146226082E-2</v>
+        <v>1.8090316636238057E-2</v>
       </c>
       <c r="AB7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P7,ASK)-R7)</f>
-        <v>1.0861501146226082E-2</v>
+        <v>1.8090316636238057E-2</v>
       </c>
       <c r="AC7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,BID)-T7)</f>
-        <v>6.9780346890091494E-3</v>
+        <v>3.5065498245690385E-2</v>
       </c>
       <c r="AD7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,ASK)-U7)</f>
-        <v>6.9780346890091494E-3</v>
+        <v>3.5065498245690385E-2</v>
       </c>
       <c r="AE7" s="41"/>
       <c r="AF7" s="2"/>
@@ -6802,11 +6923,11 @@
       </c>
       <c r="K8" s="16">
         <f>'ON Pricing'!H8*100</f>
-        <v>2.0001111196568111</v>
+        <v>2.0009032669434381</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>2.0001111196568111</v>
+        <v>2.0009032669434381</v>
       </c>
       <c r="M8" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6814,11 +6935,11 @@
       </c>
       <c r="N8" s="126">
         <f>'1M Pricing'!H8*100</f>
-        <v>2.1165959315332383</v>
+        <v>2.188924201343756</v>
       </c>
       <c r="O8" s="126">
         <f t="shared" si="4"/>
-        <v>2.1165959315332383</v>
+        <v>2.188924201343756</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6826,11 +6947,11 @@
       </c>
       <c r="Q8" s="16">
         <f>'3M Pricing'!H8*100</f>
-        <v>2.2026357777602534</v>
+        <v>2.2291981249153991</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="5"/>
-        <v>2.2026357777602534</v>
+        <v>2.2291981249153991</v>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6838,46 +6959,46 @@
       </c>
       <c r="T8" s="16">
         <f>'6M Pricing'!H8*100</f>
-        <v>2.2566897999798385</v>
+        <v>2.383613970717624</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" si="6"/>
-        <v>2.2566897999798385</v>
+        <v>2.383613970717624</v>
       </c>
       <c r="V8" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J8,BID)-K8)</f>
-        <v>8.6568108237372599E-9</v>
+        <v>1.0565619490421341E-9</v>
       </c>
       <c r="X8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J8,ASK)-L8)</f>
-        <v>8.6568108237372599E-9</v>
+        <v>1.0565619490421341E-9</v>
       </c>
       <c r="Y8" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,BID)-N8)</f>
-        <v>1.0324100466761799E-2</v>
+        <v>0.12682156734375605</v>
       </c>
       <c r="Z8" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,ASK)-O8)</f>
-        <v>1.0324100466761799E-2</v>
+        <v>0.12682156734375605</v>
       </c>
       <c r="AA8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
-        <v>1.0806584239746897E-2</v>
+        <v>1.9111973915399094E-2</v>
       </c>
       <c r="AB8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
-        <v>1.0806584239746897E-2</v>
+        <v>1.9111973915399094E-2</v>
       </c>
       <c r="AC8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>6.9539330201617844E-3</v>
+        <v>3.4966595717623949E-2</v>
       </c>
       <c r="AD8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>6.9539330201617844E-3</v>
+        <v>3.4966595717623949E-2</v>
       </c>
       <c r="AE8" s="41"/>
       <c r="AF8" s="2"/>
@@ -6937,11 +7058,11 @@
       </c>
       <c r="K9" s="16">
         <f>'ON Pricing'!H9*100</f>
-        <v>2.0000000031379996</v>
+        <v>2.0000000024282656</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" ref="L9:L17" si="7">K9</f>
-        <v>2.0000000031379996</v>
+        <v>2.0000000024282656</v>
       </c>
       <c r="M9" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6949,11 +7070,11 @@
       </c>
       <c r="N9" s="126">
         <f>'1M Pricing'!H9*100</f>
-        <v>2.114746645975345</v>
+        <v>2.1806434334148257</v>
       </c>
       <c r="O9" s="126">
         <f t="shared" ref="O9:O12" si="8">N9</f>
-        <v>2.114746645975345</v>
+        <v>2.1806434334148257</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6961,11 +7082,11 @@
       </c>
       <c r="Q9" s="16">
         <f>'3M Pricing'!H9*100</f>
-        <v>2.2023992074699912</v>
+        <v>2.2324022534337802</v>
       </c>
       <c r="R9" s="16">
         <f t="shared" ref="R9:R14" si="9">Q9</f>
-        <v>2.2023992074699912</v>
+        <v>2.2324022534337802</v>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6973,46 +7094,46 @@
       </c>
       <c r="T9" s="16">
         <f>'6M Pricing'!H9*100</f>
-        <v>2.2571107040510858</v>
+        <v>2.3801645606599093</v>
       </c>
       <c r="U9" s="16">
         <f t="shared" ref="U9:U17" si="10">T9</f>
-        <v>2.2571107040510858</v>
+        <v>2.3801645606599093</v>
       </c>
       <c r="V9" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J9,BID)-K9)</f>
-        <v>5.1379995813505275E-9</v>
+        <v>5.7173421552647596E-10</v>
       </c>
       <c r="X9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J9,ASK)-L9)</f>
-        <v>5.1379995813505275E-9</v>
+        <v>5.7173421552647596E-10</v>
       </c>
       <c r="Y9" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,BID)-N9)</f>
-        <v>9.9638050246553256E-3</v>
+        <v>0.12071377041482556</v>
       </c>
       <c r="Z9" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,ASK)-O9)</f>
-        <v>9.9638050246553256E-3</v>
+        <v>0.12071377041482556</v>
       </c>
       <c r="AA9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
-        <v>1.046934153000878E-2</v>
+        <v>2.5134638433780054E-2</v>
       </c>
       <c r="AB9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
-        <v>1.046934153000878E-2</v>
+        <v>2.5134638433780054E-2</v>
       </c>
       <c r="AC9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>6.8164709489142439E-3</v>
+        <v>3.4373067659909218E-2</v>
       </c>
       <c r="AD9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>6.8164709489142439E-3</v>
+        <v>3.4373067659909218E-2</v>
       </c>
       <c r="AE9" s="41" t="s">
         <v>70</v>
@@ -7076,11 +7197,11 @@
       </c>
       <c r="N10" s="126">
         <f>'1M Pricing'!H10*100</f>
-        <v>2.1123361943430736</v>
+        <v>2.1703573336383588</v>
       </c>
       <c r="O10" s="126">
         <f t="shared" si="8"/>
-        <v>2.1123361943430736</v>
+        <v>2.1703573336383588</v>
       </c>
       <c r="P10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7088,11 +7209,11 @@
       </c>
       <c r="Q10" s="16">
         <f>'3M Pricing'!H10*100</f>
-        <v>2.2017818903544466</v>
+        <v>2.2345826184464137</v>
       </c>
       <c r="R10" s="16">
         <f t="shared" si="9"/>
-        <v>2.2017818903544466</v>
+        <v>2.2345826184464137</v>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7100,11 +7221,11 @@
       </c>
       <c r="T10" s="16">
         <f>'6M Pricing'!H10*100</f>
-        <v>2.2572777614852657</v>
+        <v>2.375252495451547</v>
       </c>
       <c r="U10" s="16">
         <f t="shared" si="10"/>
-        <v>2.2572777614852657</v>
+        <v>2.375252495451547</v>
       </c>
       <c r="V10" s="98" t="s">
         <v>70</v>
@@ -7113,27 +7234,27 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M10,BID)-N10)</f>
-        <v>9.6028736569264694E-3</v>
+        <v>0.11388630263835875</v>
       </c>
       <c r="Z10" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M10,ASK)-O10)</f>
-        <v>9.6028736569264694E-3</v>
+        <v>0.11388630263835875</v>
       </c>
       <c r="AA10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
-        <v>1.0024659645553324E-2</v>
+        <v>3.1536901446413523E-2</v>
       </c>
       <c r="AB10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
-        <v>1.0024659645553324E-2</v>
+        <v>3.1536901446413523E-2</v>
       </c>
       <c r="AC10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
-        <v>6.6304645147345909E-3</v>
+        <v>3.3677135451546825E-2</v>
       </c>
       <c r="AD10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
-        <v>6.6304645147345909E-3</v>
+        <v>3.3677135451546825E-2</v>
       </c>
       <c r="AE10" s="41" t="s">
         <v>70</v>
@@ -7197,11 +7318,11 @@
       </c>
       <c r="N11" s="126">
         <f>'1M Pricing'!H11*100</f>
-        <v>2.1099528839829262</v>
+        <v>2.1596708505236935</v>
       </c>
       <c r="O11" s="126">
         <f t="shared" si="8"/>
-        <v>2.1099528839829262</v>
+        <v>2.1596708505236935</v>
       </c>
       <c r="P11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7209,11 +7330,11 @@
       </c>
       <c r="Q11" s="16">
         <f>'3M Pricing'!H11*100</f>
-        <v>2.2011223633656232</v>
+        <v>2.2355877666206472</v>
       </c>
       <c r="R11" s="16">
         <f t="shared" si="9"/>
-        <v>2.2011223633656232</v>
+        <v>2.2355877666206472</v>
       </c>
       <c r="S11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7221,11 +7342,11 @@
       </c>
       <c r="T11" s="16">
         <f>'6M Pricing'!H11*100</f>
-        <v>2.2573240168286124</v>
+        <v>2.3696631710527152</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" si="10"/>
-        <v>2.2573240168286124</v>
+        <v>2.3696631710527152</v>
       </c>
       <c r="V11" s="98" t="s">
         <v>70</v>
@@ -7234,27 +7355,27 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,BID)-N11)</f>
-        <v>9.3021670170738702E-3</v>
+        <v>0.10715309452369359</v>
       </c>
       <c r="Z11" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,ASK)-O11)</f>
-        <v>9.3021670170738702E-3</v>
+        <v>0.10715309452369359</v>
       </c>
       <c r="AA11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
-        <v>9.5557976343769724E-3</v>
+        <v>3.736998362064714E-2</v>
       </c>
       <c r="AB11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
-        <v>9.5557976343769724E-3</v>
+        <v>3.736998362064714E-2</v>
       </c>
       <c r="AC11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
-        <v>6.5293391713878712E-3</v>
+        <v>3.2972753052715298E-2</v>
       </c>
       <c r="AD11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
-        <v>6.5293391713878712E-3</v>
+        <v>3.2972753052715298E-2</v>
       </c>
       <c r="AE11" s="41" t="s">
         <v>70</v>
@@ -7316,11 +7437,11 @@
       </c>
       <c r="K12" s="16">
         <f>'ON Pricing'!H12*100</f>
-        <v>1.9974999995644684</v>
+        <v>1.9849999999516303</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="7"/>
-        <v>1.9974999995644684</v>
+        <v>1.9849999999516303</v>
       </c>
       <c r="M12" s="125" t="str">
         <f t="shared" si="0"/>
@@ -7328,11 +7449,11 @@
       </c>
       <c r="N12" s="126">
         <f>'1M Pricing'!H12*100</f>
-        <v>2.1060524321801743</v>
+        <v>2.1434624094785453</v>
       </c>
       <c r="O12" s="126">
         <f t="shared" si="8"/>
-        <v>2.1060524321801743</v>
+        <v>2.1434624094785453</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7340,11 +7461,11 @@
       </c>
       <c r="Q12" s="16">
         <f>'3M Pricing'!H12*100</f>
-        <v>2.1999838624744035</v>
+        <v>2.234498908927649</v>
       </c>
       <c r="R12" s="16">
         <f t="shared" si="9"/>
-        <v>2.1999838624744035</v>
+        <v>2.234498908927649</v>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7352,46 +7473,46 @@
       </c>
       <c r="T12" s="16">
         <f>'6M Pricing'!H12*100</f>
-        <v>2.2574252559036392</v>
+        <v>2.3607463538354838</v>
       </c>
       <c r="U12" s="16">
         <f t="shared" si="10"/>
-        <v>2.2574252559036392</v>
+        <v>2.3607463538354838</v>
       </c>
       <c r="V12" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J12,BID)-K12)</f>
-        <v>4.3553161077625191E-10</v>
+        <v>4.8369530603054045E-11</v>
       </c>
       <c r="X12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J12,ASK)-L12)</f>
-        <v>4.3553161077625191E-10</v>
+        <v>4.8369530603054045E-11</v>
       </c>
       <c r="Y12" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>8.7486538198255914E-3</v>
+        <v>9.8020022478545243E-2</v>
       </c>
       <c r="Z12" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>8.7486538198255914E-3</v>
+        <v>9.8020022478545243E-2</v>
       </c>
       <c r="AA12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
-        <v>9.0301755255968175E-3</v>
+        <v>4.4379508927649081E-2</v>
       </c>
       <c r="AB12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
-        <v>9.0301755255968175E-3</v>
+        <v>4.4379508927649081E-2</v>
       </c>
       <c r="AC12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>6.3035430963611638E-3</v>
+        <v>3.1988858835483747E-2</v>
       </c>
       <c r="AD12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>6.3035430963611638E-3</v>
+        <v>3.1988858835483747E-2</v>
       </c>
       <c r="AE12" s="41" t="s">
         <v>70</v>
@@ -7452,11 +7573,11 @@
       </c>
       <c r="K13" s="16">
         <f>'ON Pricing'!H13*100</f>
-        <v>1.9925000002474103</v>
+        <v>1.9575000000068468</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="7"/>
-        <v>1.9925000002474103</v>
+        <v>1.9575000000068468</v>
       </c>
       <c r="M13" s="125"/>
       <c r="N13" s="126"/>
@@ -7467,11 +7588,11 @@
       </c>
       <c r="Q13" s="16">
         <f>'3M Pricing'!H13*100</f>
-        <v>2.1947102717034794</v>
+        <v>2.2191601990653855</v>
       </c>
       <c r="R13" s="16">
         <f t="shared" si="9"/>
-        <v>2.1947102717034794</v>
+        <v>2.2191601990653855</v>
       </c>
       <c r="S13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7479,40 +7600,40 @@
       </c>
       <c r="T13" s="16">
         <f>'6M Pricing'!H13*100</f>
-        <v>2.2551986181245223</v>
+        <v>2.3281239238505096</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="10"/>
-        <v>2.2551986181245223</v>
+        <v>2.3281239238505096</v>
       </c>
       <c r="V13" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J13,BID)-K13)</f>
-        <v>2.4741009241324718E-10</v>
+        <v>6.8467453928633404E-12</v>
       </c>
       <c r="X13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J13,ASK)-L13)</f>
-        <v>2.4741009241324718E-10</v>
+        <v>6.8467453928633404E-12</v>
       </c>
       <c r="Y13" s="127"/>
       <c r="Z13" s="127"/>
       <c r="AA13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P13,BID)-Q13)</f>
-        <v>7.5391732965206515E-3</v>
+        <v>5.7869754065385415E-2</v>
       </c>
       <c r="AB13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P13,ASK)-R13)</f>
-        <v>7.5391732965206515E-3</v>
+        <v>5.7869754065385415E-2</v>
       </c>
       <c r="AC13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>5.7392698754776816E-3</v>
+        <v>2.900189785050955E-2</v>
       </c>
       <c r="AD13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>5.7392698754776816E-3</v>
+        <v>2.900189785050955E-2</v>
       </c>
       <c r="AE13" s="41" t="s">
         <v>70</v>
@@ -7573,11 +7694,11 @@
       </c>
       <c r="K14" s="16">
         <f>'ON Pricing'!H14*100</f>
-        <v>1.982500000186425</v>
+        <v>1.9289999999986498</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="7"/>
-        <v>1.982500000186425</v>
+        <v>1.9289999999986498</v>
       </c>
       <c r="M14" s="128"/>
       <c r="N14" s="129"/>
@@ -7588,11 +7709,11 @@
       </c>
       <c r="Q14" s="16">
         <f>'3M Pricing'!H14*100</f>
-        <v>2.1847511478243424</v>
+        <v>2.1940460252358278</v>
       </c>
       <c r="R14" s="16">
         <f t="shared" si="9"/>
-        <v>2.1847511478243424</v>
+        <v>2.1940460252358278</v>
       </c>
       <c r="S14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7600,40 +7721,40 @@
       </c>
       <c r="T14" s="16">
         <f>'6M Pricing'!H14*100</f>
-        <v>2.2485219814407484</v>
+        <v>2.3010520829807755</v>
       </c>
       <c r="U14" s="16">
         <f t="shared" si="10"/>
-        <v>2.2485219814407484</v>
+        <v>2.3010520829807755</v>
       </c>
       <c r="V14" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J14,BID)-K14)</f>
-        <v>1.8642487553677256E-10</v>
+        <v>1.3500311979441904E-12</v>
       </c>
       <c r="X14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J14,ASK)-L14)</f>
-        <v>1.8642487553677256E-10</v>
+        <v>1.3500311979441904E-12</v>
       </c>
       <c r="Y14" s="130"/>
       <c r="Z14" s="130"/>
       <c r="AA14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P14,BID)-Q14)</f>
-        <v>6.0945861756578346E-3</v>
+        <v>5.7470657235827893E-2</v>
       </c>
       <c r="AB14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P14,ASK)-R14)</f>
-        <v>6.0945861756578346E-3</v>
+        <v>5.7470657235827893E-2</v>
       </c>
       <c r="AC14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>5.1323415592516852E-3</v>
+        <v>2.5979033980775501E-2</v>
       </c>
       <c r="AD14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>5.1323415592516852E-3</v>
+        <v>2.5979033980775501E-2</v>
       </c>
       <c r="AE14" s="41" t="s">
         <v>70</v>
@@ -7693,11 +7814,11 @@
       </c>
       <c r="K15" s="16">
         <f>'ON Pricing'!H15*100</f>
-        <v>1.9735000001536809</v>
+        <v>1.9150000000003307</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="7"/>
-        <v>1.9735000001536809</v>
+        <v>1.9150000000003307</v>
       </c>
       <c r="M15" s="125"/>
       <c r="N15" s="126"/>
@@ -7711,22 +7832,22 @@
       </c>
       <c r="T15" s="16">
         <f>'6M Pricing'!H15*100</f>
-        <v>2.2431109450210389</v>
+        <v>2.2814140715717897</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" si="10"/>
-        <v>2.2431109450210389</v>
+        <v>2.2814140715717897</v>
       </c>
       <c r="V15" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J15,BID)-K15)</f>
-        <v>1.5368084582689789E-10</v>
+        <v>3.3062441673337162E-13</v>
       </c>
       <c r="X15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J15,ASK)-L15)</f>
-        <v>1.5368084582689789E-10</v>
+        <v>3.3062441673337162E-13</v>
       </c>
       <c r="Y15" s="127"/>
       <c r="Z15" s="127"/>
@@ -7734,11 +7855,11 @@
       <c r="AB15" s="104"/>
       <c r="AC15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,BID)-T15)</f>
-        <v>4.6625159789610571E-3</v>
+        <v>2.2565811571789496E-2</v>
       </c>
       <c r="AD15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,ASK)-U15)</f>
-        <v>4.6625159789610571E-3</v>
+        <v>2.2565811571789496E-2</v>
       </c>
       <c r="AE15" s="41" t="s">
         <v>70</v>
@@ -7798,11 +7919,11 @@
       </c>
       <c r="K16" s="16">
         <f>'ON Pricing'!H16*100</f>
-        <v>1.963500000111559</v>
+        <v>1.892500000000003</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="7"/>
-        <v>1.963500000111559</v>
+        <v>1.892500000000003</v>
       </c>
       <c r="M16" s="125"/>
       <c r="N16" s="126"/>
@@ -7816,22 +7937,22 @@
       </c>
       <c r="T16" s="16">
         <f>'6M Pricing'!H16*100</f>
-        <v>2.2362350105273396</v>
+        <v>2.2565921992635931</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="10"/>
-        <v>2.2362350105273396</v>
+        <v>2.2565921992635931</v>
       </c>
       <c r="V16" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J16,BID)-K16)</f>
-        <v>1.1155898427261945E-10</v>
+        <v>2.886579864025407E-15</v>
       </c>
       <c r="X16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J16,ASK)-L16)</f>
-        <v>1.1155898427261945E-10</v>
+        <v>2.886579864025407E-15</v>
       </c>
       <c r="Y16" s="127"/>
       <c r="Z16" s="127"/>
@@ -7839,11 +7960,11 @@
       <c r="AB16" s="104"/>
       <c r="AC16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,BID)-T16)</f>
-        <v>3.9196604726603468E-3</v>
+        <v>1.9804855263592991E-2</v>
       </c>
       <c r="AD16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,ASK)-U16)</f>
-        <v>3.9196604726603468E-3</v>
+        <v>1.9804855263592991E-2</v>
       </c>
       <c r="AE16" s="41" t="s">
         <v>70</v>
@@ -7903,11 +8024,11 @@
       </c>
       <c r="K17" s="16">
         <f>'ON Pricing'!H17*100</f>
-        <v>1.9600000000998226</v>
+        <v>1.8675000000000372</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="7"/>
-        <v>1.9600000000998226</v>
+        <v>1.8675000000000372</v>
       </c>
       <c r="M17" s="128"/>
       <c r="N17" s="129"/>
@@ -7921,22 +8042,22 @@
       </c>
       <c r="T17" s="16">
         <f>'6M Pricing'!H17*100</f>
-        <v>2.2363324900027806</v>
+        <v>2.2313362373113623</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="10"/>
-        <v>2.2363324900027806</v>
+        <v>2.2313362373113623</v>
       </c>
       <c r="V17" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J17,BID)-K17)</f>
-        <v>9.9822594634702E-11</v>
+        <v>3.7081449022480228E-14</v>
       </c>
       <c r="X17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J17,ASK)-L17)</f>
-        <v>9.9822594634702E-11</v>
+        <v>3.7081449022480228E-14</v>
       </c>
       <c r="Y17" s="130"/>
       <c r="Z17" s="130"/>
@@ -7944,11 +8065,11 @@
       <c r="AB17" s="104"/>
       <c r="AC17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,BID)-T17)</f>
-        <v>3.3936259972193739E-3</v>
+        <v>1.6726621311362155E-2</v>
       </c>
       <c r="AD17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,ASK)-U17)</f>
-        <v>3.3936259972193739E-3</v>
+        <v>1.6726621311362155E-2</v>
       </c>
       <c r="AE17" s="41" t="s">
         <v>70</v>
@@ -8007,11 +8128,11 @@
       </c>
       <c r="K18" s="16">
         <f>'ON Pricing'!H18*100</f>
-        <v>1.947499999999996</v>
+        <v>1.8100000000000005</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" ref="L18" si="12">K18</f>
-        <v>1.947499999999996</v>
+        <v>1.8100000000000005</v>
       </c>
       <c r="M18" s="131"/>
       <c r="N18" s="132"/>
@@ -8027,11 +8148,11 @@
       </c>
       <c r="W18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J18,BID)-K18)</f>
-        <v>3.9968028886505635E-15</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="X18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J18,ASK)-L18)</f>
-        <v>3.9968028886505635E-15</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="Y18" s="133"/>
       <c r="Z18" s="133"/>
@@ -8075,14 +8196,14 @@
       </c>
       <c r="B19" s="121">
         <f t="array" ref="B19:B24">_xll.qlASXNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,A19:A24)</f>
-        <v>42167</v>
+        <v>42349</v>
       </c>
       <c r="C19" s="170" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="96" t="str">
         <f>_xll.qlASXcode(B19,Trigger)</f>
-        <v>M5</v>
+        <v>Z5</v>
       </c>
       <c r="E19" s="107" t="s">
         <v>70</v>
@@ -8106,15 +8227,15 @@
       <c r="O19" s="135"/>
       <c r="P19" s="13" t="str">
         <f t="shared" ref="P19:P24" si="13">Currency&amp;$P$4&amp;D19</f>
-        <v>AUD3MM5</v>
+        <v>AUD3MZ5</v>
       </c>
       <c r="Q19" s="14">
         <f>'3M Pricing'!H19</f>
-        <v>97.835000000069556</v>
+        <v>97.955000000012348</v>
       </c>
       <c r="R19" s="14">
         <f t="shared" ref="R19:R24" si="14">Q19</f>
-        <v>97.835000000069556</v>
+        <v>97.955000000012348</v>
       </c>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -8128,11 +8249,11 @@
       <c r="Z19" s="136"/>
       <c r="AA19" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P19,BID)-Q19)</f>
-        <v>6.9547922976198606E-11</v>
+        <v>1.2349232747510541E-11</v>
       </c>
       <c r="AB19" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P19,ASK)-R19)</f>
-        <v>6.9547922976198606E-11</v>
+        <v>1.2349232747510541E-11</v>
       </c>
       <c r="AC19" s="102"/>
       <c r="AD19" s="102"/>
@@ -8171,12 +8292,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="121">
-        <v>42258</v>
+        <v>42440</v>
       </c>
       <c r="C20" s="171"/>
       <c r="D20" s="97" t="str">
         <f>_xll.qlASXcode(B20,Trigger)</f>
-        <v>U5</v>
+        <v>H6</v>
       </c>
       <c r="E20" s="108" t="s">
         <v>70</v>
@@ -8200,15 +8321,15 @@
       <c r="O20" s="129"/>
       <c r="P20" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>AUD3MU5</v>
+        <v>AUD3MH6</v>
       </c>
       <c r="Q20" s="16">
         <f>'3M Pricing'!H20</f>
-        <v>97.880000000223305</v>
+        <v>98.084999999999994</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="14"/>
-        <v>97.880000000223305</v>
+        <v>98.084999999999994</v>
       </c>
       <c r="S20" s="103"/>
       <c r="T20" s="103"/>
@@ -8222,11 +8343,11 @@
       <c r="Z20" s="130"/>
       <c r="AA20" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P20,BID)-Q20)</f>
-        <v>2.2330937099468429E-10</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P20,ASK)-R20)</f>
-        <v>2.2330937099468429E-10</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="104"/>
       <c r="AD20" s="104"/>
@@ -8265,12 +8386,12 @@
         <v>1</v>
       </c>
       <c r="B21" s="121">
-        <v>42349</v>
+        <v>42531</v>
       </c>
       <c r="C21" s="171"/>
       <c r="D21" s="97" t="str">
         <f>_xll.qlASXcode(B21,Trigger)</f>
-        <v>Z5</v>
+        <v>M6</v>
       </c>
       <c r="E21" s="108" t="s">
         <v>70</v>
@@ -8294,15 +8415,15 @@
       <c r="O21" s="129"/>
       <c r="P21" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>AUD3MZ5</v>
+        <v>AUD3MM6</v>
       </c>
       <c r="Q21" s="16">
         <f>'3M Pricing'!H21</f>
-        <v>97.874999999999957</v>
+        <v>98.145000000000081</v>
       </c>
       <c r="R21" s="16">
         <f t="shared" si="14"/>
-        <v>97.874999999999957</v>
+        <v>98.145000000000081</v>
       </c>
       <c r="S21" s="103"/>
       <c r="T21" s="103"/>
@@ -8316,11 +8437,11 @@
       <c r="Z21" s="130"/>
       <c r="AA21" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P21,BID)-Q21)</f>
-        <v>4.2632564145606011E-14</v>
+        <v>8.5265128291212022E-14</v>
       </c>
       <c r="AB21" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P21,ASK)-R21)</f>
-        <v>4.2632564145606011E-14</v>
+        <v>8.5265128291212022E-14</v>
       </c>
       <c r="AC21" s="104"/>
       <c r="AD21" s="104"/>
@@ -8359,12 +8480,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="121">
-        <v>42440</v>
+        <v>42622</v>
       </c>
       <c r="C22" s="171"/>
       <c r="D22" s="97" t="str">
         <f>_xll.qlASXcode(B22,Trigger)</f>
-        <v>H6</v>
+        <v>U6</v>
       </c>
       <c r="E22" s="108" t="s">
         <v>70</v>
@@ -8388,15 +8509,15 @@
       <c r="O22" s="129"/>
       <c r="P22" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>AUD3MH6</v>
+        <v>AUD3MU6</v>
       </c>
       <c r="Q22" s="16">
         <f>'3M Pricing'!H22</f>
-        <v>97.833655104418995</v>
+        <v>98.253944328547036</v>
       </c>
       <c r="R22" s="16">
         <f t="shared" si="14"/>
-        <v>97.833655104418995</v>
+        <v>98.253944328547036</v>
       </c>
       <c r="S22" s="103"/>
       <c r="T22" s="103"/>
@@ -8410,11 +8531,11 @@
       <c r="Z22" s="130"/>
       <c r="AA22" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P22,BID)-Q22)</f>
-        <v>7.3018745810173868E-3</v>
+        <v>0.13953932254703716</v>
       </c>
       <c r="AB22" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P22,ASK)-R22)</f>
-        <v>7.3018745810173868E-3</v>
+        <v>0.13953932254703716</v>
       </c>
       <c r="AC22" s="104"/>
       <c r="AD22" s="104"/>
@@ -8453,12 +8574,12 @@
         <v>1</v>
       </c>
       <c r="B23" s="121">
-        <v>42531</v>
+        <v>42713</v>
       </c>
       <c r="C23" s="171"/>
       <c r="D23" s="97" t="str">
         <f>_xll.qlASXcode(B23,Trigger)</f>
-        <v>M6</v>
+        <v>Z6</v>
       </c>
       <c r="E23" s="108" t="s">
         <v>70</v>
@@ -8482,15 +8603,15 @@
       <c r="O23" s="129"/>
       <c r="P23" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>AUD3MM6</v>
+        <v>AUD3MZ6</v>
       </c>
       <c r="Q23" s="16">
         <f>'3M Pricing'!H23</f>
-        <v>97.737337286937702</v>
+        <v>98.108035951040364</v>
       </c>
       <c r="R23" s="16">
         <f t="shared" si="14"/>
-        <v>97.737337286937702</v>
+        <v>98.108035951040364</v>
       </c>
       <c r="S23" s="103"/>
       <c r="T23" s="103"/>
@@ -8504,11 +8625,11 @@
       <c r="Z23" s="130"/>
       <c r="AA23" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P23,BID)-Q23)</f>
-        <v>3.7674593770020692E-4</v>
+        <v>2.8438618040368624E-2</v>
       </c>
       <c r="AB23" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P23,ASK)-R23)</f>
-        <v>3.7674593770020692E-4</v>
+        <v>2.8438618040368624E-2</v>
       </c>
       <c r="AC23" s="104"/>
       <c r="AD23" s="104"/>
@@ -8547,12 +8668,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="121">
-        <v>42622</v>
+        <v>42804</v>
       </c>
       <c r="C24" s="172"/>
       <c r="D24" s="148" t="str">
         <f>_xll.qlASXcode(B24,Trigger)</f>
-        <v>U6</v>
+        <v>H7</v>
       </c>
       <c r="E24" s="109" t="s">
         <v>70</v>
@@ -8574,15 +8695,15 @@
       <c r="O24" s="132"/>
       <c r="P24" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>AUD3MU6</v>
+        <v>AUD3MH7</v>
       </c>
       <c r="Q24" s="18">
         <f>'3M Pricing'!H24</f>
-        <v>97.639755173888304</v>
+        <v>97.992027484877312</v>
       </c>
       <c r="R24" s="18">
         <f t="shared" si="14"/>
-        <v>97.639755173888304</v>
+        <v>97.992027484877312</v>
       </c>
       <c r="S24" s="105"/>
       <c r="T24" s="105"/>
@@ -8596,11 +8717,11 @@
       <c r="Z24" s="137"/>
       <c r="AA24" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P24,BID)-Q24)</f>
-        <v>1.4410866888297846E-2</v>
+        <v>4.3902099122689719E-2</v>
       </c>
       <c r="AB24" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P24,ASK)-R24)</f>
-        <v>1.4410866888297846E-2</v>
+        <v>4.3902099122689719E-2</v>
       </c>
       <c r="AC24" s="106"/>
       <c r="AD24" s="106"/>
@@ -8666,11 +8787,11 @@
       </c>
       <c r="N25" s="123">
         <f>'1M Pricing'!H25*100</f>
-        <v>2.0767819881046132</v>
+        <v>2.0542750527246785</v>
       </c>
       <c r="O25" s="123">
         <f>N25</f>
-        <v>2.0767819881046132</v>
+        <v>2.0542750527246785</v>
       </c>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
@@ -8685,11 +8806,11 @@
       <c r="X25" s="14"/>
       <c r="Y25" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,BID)-N25)</f>
-        <v>6.186994895386988E-3</v>
+        <v>5.611371472467841E-2</v>
       </c>
       <c r="Z25" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,ASK)-O25)</f>
-        <v>6.186994895386988E-3</v>
+        <v>5.611371472467841E-2</v>
       </c>
       <c r="AA25" s="102"/>
       <c r="AB25" s="102"/>
@@ -8753,11 +8874,11 @@
       </c>
       <c r="N26" s="126">
         <f>'1M Pricing'!H26*100</f>
-        <v>2.040101299703311</v>
+        <v>1.9560779838186035</v>
       </c>
       <c r="O26" s="126">
         <f>N26</f>
-        <v>2.040101299703311</v>
+        <v>1.9560779838186035</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="103"/>
@@ -8772,11 +8893,11 @@
       <c r="X26" s="16"/>
       <c r="Y26" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>3.5080572966892376E-3</v>
+        <v>1.7679342818603505E-2</v>
       </c>
       <c r="Z26" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>3.5080572966892376E-3</v>
+        <v>1.7679342818603505E-2</v>
       </c>
       <c r="AA26" s="104"/>
       <c r="AB26" s="104"/>
@@ -8840,11 +8961,11 @@
       </c>
       <c r="N27" s="126">
         <f>'1M Pricing'!H27*100</f>
-        <v>2.0264170042589043</v>
+        <v>1.896814950186877</v>
       </c>
       <c r="O27" s="126">
         <f>N27</f>
-        <v>2.0264170042589043</v>
+        <v>1.896814950186877</v>
       </c>
       <c r="P27" s="103"/>
       <c r="Q27" s="103"/>
@@ -8859,11 +8980,11 @@
       <c r="X27" s="16"/>
       <c r="Y27" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>2.5274837410957929E-3</v>
+        <v>1.7942293186876901E-2</v>
       </c>
       <c r="Z27" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>2.5274837410957929E-3</v>
+        <v>1.7942293186876901E-2</v>
       </c>
       <c r="AA27" s="104"/>
       <c r="AB27" s="104"/>
@@ -8927,11 +9048,11 @@
       </c>
       <c r="K28" s="16">
         <f>'ON Pricing'!H28*100</f>
-        <v>1.9579999999999944</v>
+        <v>1.7729999999999912</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" ref="L28:L43" si="16">K28</f>
-        <v>1.9579999999999944</v>
+        <v>1.7729999999999912</v>
       </c>
       <c r="M28" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D28&amp;"="</f>
@@ -8939,11 +9060,11 @@
       </c>
       <c r="N28" s="126">
         <f>'1M Pricing'!H28*100</f>
-        <v>2.0265298354323633</v>
+        <v>1.839620706741333</v>
       </c>
       <c r="O28" s="126">
         <f>N28</f>
-        <v>2.0265298354323633</v>
+        <v>1.839620706741333</v>
       </c>
       <c r="P28" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D28&amp;"="</f>
@@ -8951,11 +9072,11 @@
       </c>
       <c r="Q28" s="16">
         <f>'3M Pricing'!H28*100</f>
-        <v>2.1449999999721938</v>
+        <v>1.9775000000122229</v>
       </c>
       <c r="R28" s="16">
         <f>Q28</f>
-        <v>2.1449999999721938</v>
+        <v>1.9775000000122229</v>
       </c>
       <c r="S28" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D28&amp;"="</f>
@@ -8963,46 +9084,46 @@
       </c>
       <c r="T28" s="16">
         <f>'6M Pricing'!H28*100</f>
-        <v>2.2420987069177567</v>
+        <v>2.1152400348908742</v>
       </c>
       <c r="U28" s="16">
         <f>T28</f>
-        <v>2.2420987069177567</v>
+        <v>2.1152400348908742</v>
       </c>
       <c r="V28" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J28,BID)-K28)</f>
-        <v>5.5511151231257827E-15</v>
+        <v>8.8817841970012523E-15</v>
       </c>
       <c r="X28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J28,ASK)-L28)</f>
-        <v>5.5511151231257827E-15</v>
+        <v>8.8817841970012523E-15</v>
       </c>
       <c r="Y28" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>4.743236337034773E-8</v>
+        <v>2.5866686570452657E-10</v>
       </c>
       <c r="Z28" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>4.743236337034773E-8</v>
+        <v>2.5866686570452657E-10</v>
       </c>
       <c r="AA28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,BID)-Q28)</f>
-        <v>2.7806201785551821E-11</v>
+        <v>1.2222889367308198E-11</v>
       </c>
       <c r="AB28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,ASK)-R28)</f>
-        <v>2.7806201785551821E-11</v>
+        <v>1.2222889367308198E-11</v>
       </c>
       <c r="AC28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>3.0286917756860987E-5</v>
+        <v>1.1241431091257859E-3</v>
       </c>
       <c r="AD28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>3.0286917756860987E-5</v>
+        <v>1.1241431091257859E-3</v>
       </c>
       <c r="AE28" s="41" t="s">
         <v>70</v>
@@ -9061,11 +9182,11 @@
       </c>
       <c r="K29" s="16">
         <f>'ON Pricing'!H29*100</f>
-        <v>1.9999999999999918</v>
+        <v>1.7449999999999892</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="16"/>
-        <v>1.9999999999999918</v>
+        <v>1.7449999999999892</v>
       </c>
       <c r="M29" s="125"/>
       <c r="N29" s="126"/>
@@ -9081,11 +9202,11 @@
       </c>
       <c r="W29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J29,BID)-K29)</f>
-        <v>4.5646300000812268E-4</v>
+        <v>1.0880185641326534E-14</v>
       </c>
       <c r="X29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J29,ASK)-L29)</f>
-        <v>4.5646300000812268E-4</v>
+        <v>1.0880185641326534E-14</v>
       </c>
       <c r="Y29" s="127"/>
       <c r="Z29" s="127"/>
@@ -9153,11 +9274,11 @@
       </c>
       <c r="K30" s="16">
         <f>'ON Pricing'!H30*100</f>
-        <v>2.0799999999999961</v>
+        <v>1.7650000000000055</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="16"/>
-        <v>2.0799999999999961</v>
+        <v>1.7650000000000055</v>
       </c>
       <c r="M30" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D30&amp;"="</f>
@@ -9165,11 +9286,11 @@
       </c>
       <c r="N30" s="126">
         <f>'1M Pricing'!H30*100</f>
-        <v>2.1523433942296393</v>
+        <v>1.8358853335825913</v>
       </c>
       <c r="O30" s="126">
         <f>N30</f>
-        <v>2.1523433942296393</v>
+        <v>1.8358853335825913</v>
       </c>
       <c r="P30" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D30&amp;"="</f>
@@ -9177,11 +9298,11 @@
       </c>
       <c r="Q30" s="16">
         <f>'3M Pricing'!H30*100</f>
-        <v>2.2599999999711828</v>
+        <v>1.9674999999150167</v>
       </c>
       <c r="R30" s="16">
         <f>Q30</f>
-        <v>2.2599999999711828</v>
+        <v>1.9674999999150167</v>
       </c>
       <c r="S30" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D30&amp;"="</f>
@@ -9189,46 +9310,46 @@
       </c>
       <c r="T30" s="16">
         <f>'6M Pricing'!H30*100</f>
-        <v>2.3737672332174942</v>
+        <v>2.1011632653685011</v>
       </c>
       <c r="U30" s="16">
         <f>T30</f>
-        <v>2.3737672332174942</v>
+        <v>2.1011632653685011</v>
       </c>
       <c r="V30" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J30,BID)-K30)</f>
-        <v>3.9968028886505635E-15</v>
+        <v>5.3290705182007514E-15</v>
       </c>
       <c r="X30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J30,ASK)-L30)</f>
-        <v>3.9968028886505635E-15</v>
+        <v>5.3290705182007514E-15</v>
       </c>
       <c r="Y30" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,BID)-N30)</f>
-        <v>2.8777036087390684E-7</v>
+        <v>4.1740855216687578E-10</v>
       </c>
       <c r="Z30" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,ASK)-O30)</f>
-        <v>2.8777036087390684E-7</v>
+        <v>4.1740855216687578E-10</v>
       </c>
       <c r="AA30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,BID)-Q30)</f>
-        <v>2.8817392916380413E-11</v>
+        <v>8.4983353687562158E-11</v>
       </c>
       <c r="AB30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,ASK)-R30)</f>
-        <v>2.8817392916380413E-11</v>
+        <v>8.4983353687562158E-11</v>
       </c>
       <c r="AC30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>1.6136217494189253E-5</v>
+        <v>1.162793685010044E-4</v>
       </c>
       <c r="AD30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>1.6136217494189253E-5</v>
+        <v>1.162793685010044E-4</v>
       </c>
       <c r="AE30" s="41" t="s">
         <v>70</v>
@@ -9290,11 +9411,11 @@
       </c>
       <c r="K31" s="16">
         <f>'ON Pricing'!H31*100</f>
-        <v>2.2400000000000011</v>
+        <v>1.8449999999999942</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="16"/>
-        <v>2.2400000000000011</v>
+        <v>1.8449999999999942</v>
       </c>
       <c r="M31" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D31&amp;"="</f>
@@ -9302,11 +9423,11 @@
       </c>
       <c r="N31" s="126">
         <f>'1M Pricing'!H31*100</f>
-        <v>2.3130219083190116</v>
+        <v>1.9193916237252158</v>
       </c>
       <c r="O31" s="126">
         <f>N31</f>
-        <v>2.3130219083190116</v>
+        <v>1.9193916237252158</v>
       </c>
       <c r="P31" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D31&amp;"="</f>
@@ -9314,11 +9435,11 @@
       </c>
       <c r="Q31" s="16">
         <f>'3M Pricing'!H31*100</f>
-        <v>2.4124999999965087</v>
+        <v>2.03999999992498</v>
       </c>
       <c r="R31" s="16">
         <f>Q31</f>
-        <v>2.4124999999965087</v>
+        <v>2.03999999992498</v>
       </c>
       <c r="S31" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D31&amp;"="</f>
@@ -9326,46 +9447,46 @@
       </c>
       <c r="T31" s="16">
         <f>'6M Pricing'!H31*100</f>
-        <v>2.5222678067579452</v>
+        <v>2.1632909141032197</v>
       </c>
       <c r="U31" s="16">
         <f>T31</f>
-        <v>2.5222678067579452</v>
+        <v>2.1632909141032197</v>
       </c>
       <c r="V31" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J31,BID)-K31)</f>
-        <v>8.8817841970012523E-16</v>
+        <v>5.773159728050814E-15</v>
       </c>
       <c r="X31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J31,ASK)-L31)</f>
-        <v>8.8817841970012523E-16</v>
+        <v>5.773159728050814E-15</v>
       </c>
       <c r="Y31" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
-        <v>3.1319011384312034E-8</v>
+        <v>2.7478419539761489E-10</v>
       </c>
       <c r="Z31" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
-        <v>3.1319011384312034E-8</v>
+        <v>2.7478419539761489E-10</v>
       </c>
       <c r="AA31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
-        <v>3.4914293678411923E-12</v>
+        <v>7.5019990219971078E-11</v>
       </c>
       <c r="AB31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
-        <v>3.4914293678411923E-12</v>
+        <v>7.5019990219971078E-11</v>
       </c>
       <c r="AC31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>1.0408757944890823E-5</v>
+        <v>1.1992289678008916E-4</v>
       </c>
       <c r="AD31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>1.0408757944890823E-5</v>
+        <v>1.1992289678008916E-4</v>
       </c>
       <c r="AE31" s="41" t="s">
         <v>70</v>
@@ -9427,11 +9548,11 @@
       </c>
       <c r="K32" s="16">
         <f>'ON Pricing'!H32*100</f>
-        <v>2.3899999999736559</v>
+        <v>1.959999999999994</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="16"/>
-        <v>2.3899999999736559</v>
+        <v>1.959999999999994</v>
       </c>
       <c r="M32" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D32&amp;"="</f>
@@ -9439,11 +9560,11 @@
       </c>
       <c r="N32" s="126">
         <f>'1M Pricing'!H32*100</f>
-        <v>2.4681980815037927</v>
+        <v>2.0409625245576901</v>
       </c>
       <c r="O32" s="126">
         <f>N32</f>
-        <v>2.4681980815037927</v>
+        <v>2.0409625245576901</v>
       </c>
       <c r="P32" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D32&amp;"="</f>
@@ -9451,11 +9572,11 @@
       </c>
       <c r="Q32" s="16">
         <f>'3M Pricing'!H32*100</f>
-        <v>2.5620130101907055</v>
+        <v>2.1544548700303032</v>
       </c>
       <c r="R32" s="16">
         <f>Q32</f>
-        <v>2.5620130101907055</v>
+        <v>2.1544548700303032</v>
       </c>
       <c r="S32" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D32&amp;"="</f>
@@ -9463,46 +9584,46 @@
       </c>
       <c r="T32" s="16">
         <f>'6M Pricing'!H32*100</f>
-        <v>2.6700000000002939</v>
+        <v>2.2674999999681993</v>
       </c>
       <c r="U32" s="16">
         <f>T32</f>
-        <v>2.6700000000002939</v>
+        <v>2.2674999999681993</v>
       </c>
       <c r="V32" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J32,BID)-K32)</f>
-        <v>2.6344260106725415E-11</v>
+        <v>5.9952043329758453E-15</v>
       </c>
       <c r="X32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J32,ASK)-L32)</f>
-        <v>2.6344260106725415E-11</v>
+        <v>5.9952043329758453E-15</v>
       </c>
       <c r="Y32" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
-        <v>6.6496207651312034E-8</v>
+        <v>4.4230974438619342E-10</v>
       </c>
       <c r="Z32" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
-        <v>6.6496207651312034E-8</v>
+        <v>4.4230974438619342E-10</v>
       </c>
       <c r="AA32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
-        <v>7.1809294510671862E-8</v>
+        <v>3.0303315412538723E-11</v>
       </c>
       <c r="AB32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
-        <v>7.1809294510671862E-8</v>
+        <v>3.0303315412538723E-11</v>
       </c>
       <c r="AC32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>2.9398705692074145E-13</v>
+        <v>3.1800784228153134E-11</v>
       </c>
       <c r="AD32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>2.9398705692074145E-13</v>
+        <v>3.1800784228153134E-11</v>
       </c>
       <c r="AE32" s="41" t="s">
         <v>70</v>
@@ -9564,11 +9685,11 @@
       </c>
       <c r="K33" s="16">
         <f>'ON Pricing'!H33*100</f>
-        <v>2.5429999999836741</v>
+        <v>2.0949999999999958</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="16"/>
-        <v>2.5429999999836741</v>
+        <v>2.0949999999999958</v>
       </c>
       <c r="M33" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D33&amp;"="</f>
@@ -9576,11 +9697,11 @@
       </c>
       <c r="N33" s="126">
         <f>'1M Pricing'!H33*100</f>
-        <v>2.6228406503368582</v>
+        <v>2.1822540810091779</v>
       </c>
       <c r="O33" s="126">
         <f>N33</f>
-        <v>2.6228406503368582</v>
+        <v>2.1822540810091779</v>
       </c>
       <c r="P33" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D33&amp;"="</f>
@@ -9588,11 +9709,11 @@
       </c>
       <c r="Q33" s="16">
         <f>'3M Pricing'!H33*100</f>
-        <v>2.7110410622996031</v>
+        <v>2.2912255517875271</v>
       </c>
       <c r="R33" s="16">
         <f>Q33</f>
-        <v>2.7110410622996031</v>
+        <v>2.2912255517875271</v>
       </c>
       <c r="S33" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D33&amp;"="</f>
@@ -9600,46 +9721,46 @@
       </c>
       <c r="T33" s="16">
         <f>'6M Pricing'!H33*100</f>
-        <v>2.8175000000002672</v>
+        <v>2.3974999999901465</v>
       </c>
       <c r="U33" s="16">
         <f>T33</f>
-        <v>2.8175000000002672</v>
+        <v>2.3974999999901465</v>
       </c>
       <c r="V33" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J33,BID)-K33)</f>
-        <v>1.6326051621717852E-11</v>
+        <v>4.4408920985006262E-15</v>
       </c>
       <c r="X33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J33,ASK)-L33)</f>
-        <v>1.6326051621717852E-11</v>
+        <v>4.4408920985006262E-15</v>
       </c>
       <c r="Y33" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
-        <v>3.566314177305685E-8</v>
+        <v>9.1779916999712441E-12</v>
       </c>
       <c r="Z33" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
-        <v>3.566314177305685E-8</v>
+        <v>9.1779916999712441E-12</v>
       </c>
       <c r="AA33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
-        <v>4.4700397161534511E-8</v>
+        <v>2.1247315018513291E-10</v>
       </c>
       <c r="AB33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
-        <v>4.4700397161534511E-8</v>
+        <v>2.1247315018513291E-10</v>
       </c>
       <c r="AC33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>2.6689761511988763E-13</v>
+        <v>9.8534513881531893E-12</v>
       </c>
       <c r="AD33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>2.6689761511988763E-13</v>
+        <v>9.8534513881531893E-12</v>
       </c>
       <c r="AE33" s="41" t="s">
         <v>70</v>
@@ -9682,14 +9803,17 @@
         <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,J34,Fields,K34:L34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,K34:L34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
-      <c r="F34" s="143" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>70</v>
+      <c r="F34" s="143" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,M34,Fields,N34:O34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,M34:O34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
+      </c>
+      <c r="G34" s="21" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,P34,Fields,Q34:R34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,P34:R34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
+      </c>
+      <c r="H34" s="21" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,S34,Fields,T34:U34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,S34:U34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="15" t="str">
@@ -9698,38 +9822,83 @@
       </c>
       <c r="K34" s="16">
         <f>'ON Pricing'!H34*100</f>
-        <v>2.6779999999891393</v>
+        <v>2.2250000000000019</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="16"/>
-        <v>2.6779999999891393</v>
-      </c>
-      <c r="M34" s="125"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
+        <v>2.2250000000000019</v>
+      </c>
+      <c r="M34" s="125" t="str">
+        <f>Currency&amp;$M$4&amp;D34&amp;"="</f>
+        <v>AUD1M6Y=</v>
+      </c>
+      <c r="N34" s="126">
+        <f>'1M Pricing'!H34*100</f>
+        <v>2.3228193934853447</v>
+      </c>
+      <c r="O34" s="126">
+        <f t="shared" ref="O34:O37" si="17">N34</f>
+        <v>2.3228193934853447</v>
+      </c>
+      <c r="P34" s="15" t="str">
+        <f>Currency&amp;$P$4&amp;D34&amp;"="</f>
+        <v>AUD3M6Y=</v>
+      </c>
+      <c r="Q34" s="16">
+        <f>'3M Pricing'!H34*100</f>
+        <v>2.4249651840130624</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" ref="R34:R37" si="18">Q34</f>
+        <v>2.4249651840130624</v>
+      </c>
+      <c r="S34" s="15" t="str">
+        <f>Currency&amp;$S$4&amp;D34&amp;"="</f>
+        <v>AUD6M6Y=</v>
+      </c>
+      <c r="T34" s="16">
+        <f>'6M Pricing'!H34*100</f>
+        <v>2.5262499999927468</v>
+      </c>
+      <c r="U34" s="16">
+        <f t="shared" ref="U34:U37" si="19">T34</f>
+        <v>2.5262499999927468</v>
+      </c>
       <c r="V34" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J34,BID)-K34)</f>
-        <v>1.0860645716093131E-11</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="X34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J34,ASK)-L34)</f>
-        <v>1.0860645716093131E-11</v>
-      </c>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="Y34" s="127">
+        <f>ABS(_xll.RtGet(SourceAlias,$M34,BID)-N34)</f>
+        <v>2.3228193934853447</v>
+      </c>
+      <c r="Z34" s="127">
+        <f>ABS(_xll.RtGet(SourceAlias,$M34,ASK)-O34)</f>
+        <v>2.3228193934853447</v>
+      </c>
+      <c r="AA34" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$P34,BID)-Q34)</f>
+        <v>2.4249651840130624</v>
+      </c>
+      <c r="AB34" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$P34,ASK)-R34)</f>
+        <v>2.4249651840130624</v>
+      </c>
+      <c r="AC34" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
+        <v>2.5262499999927468</v>
+      </c>
+      <c r="AD34" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
+        <v>2.5262499999927468</v>
+      </c>
       <c r="AE34" s="41" t="s">
         <v>70</v>
       </c>
@@ -9790,11 +9959,11 @@
       </c>
       <c r="K35" s="16">
         <f>'ON Pricing'!H35*100</f>
-        <v>2.8129999999923778</v>
+        <v>2.3529999999999998</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="16"/>
-        <v>2.8129999999923778</v>
+        <v>2.3529999999999998</v>
       </c>
       <c r="M35" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D35&amp;"="</f>
@@ -9802,11 +9971,11 @@
       </c>
       <c r="N35" s="126">
         <f>'1M Pricing'!H35*100</f>
-        <v>2.8898336937756568</v>
+        <v>2.4472911527432606</v>
       </c>
       <c r="O35" s="126">
-        <f>N35</f>
-        <v>2.8898336937756568</v>
+        <f t="shared" si="17"/>
+        <v>2.4472911527432606</v>
       </c>
       <c r="P35" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D35&amp;"="</f>
@@ -9814,11 +9983,11 @@
       </c>
       <c r="Q35" s="16">
         <f>'3M Pricing'!H35*100</f>
-        <v>2.9717299436776816</v>
+        <v>2.5434886592631512</v>
       </c>
       <c r="R35" s="16">
-        <f>Q35</f>
-        <v>2.9717299436776816</v>
+        <f t="shared" si="18"/>
+        <v>2.5434886592631512</v>
       </c>
       <c r="S35" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D35&amp;"="</f>
@@ -9826,46 +9995,46 @@
       </c>
       <c r="T35" s="16">
         <f>'6M Pricing'!H35*100</f>
-        <v>3.0725000000002014</v>
+        <v>2.6437500000062517</v>
       </c>
       <c r="U35" s="16">
-        <f>T35</f>
-        <v>3.0725000000002014</v>
+        <f t="shared" si="19"/>
+        <v>2.6437500000062517</v>
       </c>
       <c r="V35" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J35,BID)-K35)</f>
-        <v>7.6223471978664747E-12</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="X35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J35,ASK)-L35)</f>
-        <v>7.6223471978664747E-12</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="Y35" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
-        <v>3.1224343555180667E-8</v>
+        <v>2.567395185337773E-10</v>
       </c>
       <c r="Z35" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
-        <v>3.1224343555180667E-8</v>
+        <v>2.567395185337773E-10</v>
       </c>
       <c r="AA35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
-        <v>3.7322318569010804E-8</v>
+        <v>2.631512785455925E-10</v>
       </c>
       <c r="AB35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
-        <v>3.7322318569010804E-8</v>
+        <v>2.631512785455925E-10</v>
       </c>
       <c r="AC35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>2.0117241206207837E-13</v>
+        <v>6.2518878962691815E-12</v>
       </c>
       <c r="AD35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>2.0117241206207837E-13</v>
+        <v>6.2518878962691815E-12</v>
       </c>
       <c r="AE35" s="41" t="s">
         <v>70</v>
@@ -9908,14 +10077,17 @@
         <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,J36,Fields,K36:L36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,K36:L36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
-      <c r="F36" s="143" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>70</v>
+      <c r="F36" s="143" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,M36,Fields,N36:O36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,M36:O36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
+      </c>
+      <c r="G36" s="21" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,P36,Fields,Q36:R36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,P36:R36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
+      </c>
+      <c r="H36" s="21" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,S36,Fields,T36:U36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,S36:U36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="15" t="str">
@@ -9924,38 +10096,83 @@
       </c>
       <c r="K36" s="16">
         <f>'ON Pricing'!H36*100</f>
-        <v>2.9079999999944</v>
+        <v>2.4450000000000047</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="16"/>
-        <v>2.9079999999944</v>
-      </c>
-      <c r="M36" s="125"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
+        <v>2.4450000000000047</v>
+      </c>
+      <c r="M36" s="125" t="str">
+        <f>Currency&amp;$M$4&amp;D36&amp;"="</f>
+        <v>AUD1M8Y=</v>
+      </c>
+      <c r="N36" s="126">
+        <f>'1M Pricing'!H36*100</f>
+        <v>2.5525931241044035</v>
+      </c>
+      <c r="O36" s="126">
+        <f t="shared" si="17"/>
+        <v>2.5525931241044035</v>
+      </c>
+      <c r="P36" s="15" t="str">
+        <f>Currency&amp;$P$4&amp;D36&amp;"="</f>
+        <v>AUD3M8Y=</v>
+      </c>
+      <c r="Q36" s="16">
+        <f>'3M Pricing'!H36*100</f>
+        <v>2.6456687050743315</v>
+      </c>
+      <c r="R36" s="16">
+        <f t="shared" si="18"/>
+        <v>2.6456687050743315</v>
+      </c>
+      <c r="S36" s="15" t="str">
+        <f>Currency&amp;$S$4&amp;D36&amp;"="</f>
+        <v>AUD6M8Y=</v>
+      </c>
+      <c r="T36" s="16">
+        <f>'6M Pricing'!H36*100</f>
+        <v>2.7449999999762071</v>
+      </c>
+      <c r="U36" s="16">
+        <f t="shared" si="19"/>
+        <v>2.7449999999762071</v>
+      </c>
       <c r="V36" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J36,BID)-K36)</f>
-        <v>5.5999649362092896E-12</v>
+        <v>4.8849813083506888E-15</v>
       </c>
       <c r="X36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J36,ASK)-L36)</f>
-        <v>5.5999649362092896E-12</v>
-      </c>
-      <c r="Y36" s="127"/>
-      <c r="Z36" s="127"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
+        <v>4.8849813083506888E-15</v>
+      </c>
+      <c r="Y36" s="127">
+        <f>ABS(_xll.RtGet(SourceAlias,$M36,BID)-N36)</f>
+        <v>2.5525931241044035</v>
+      </c>
+      <c r="Z36" s="127">
+        <f>ABS(_xll.RtGet(SourceAlias,$M36,ASK)-O36)</f>
+        <v>2.5525931241044035</v>
+      </c>
+      <c r="AA36" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$P36,BID)-Q36)</f>
+        <v>2.6456687050743315</v>
+      </c>
+      <c r="AB36" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$P36,ASK)-R36)</f>
+        <v>2.6456687050743315</v>
+      </c>
+      <c r="AC36" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
+        <v>2.7449999999762071</v>
+      </c>
+      <c r="AD36" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
+        <v>2.7449999999762071</v>
+      </c>
       <c r="AE36" s="41" t="s">
         <v>70</v>
       </c>
@@ -9997,14 +10214,17 @@
         <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,J37,Fields,K37:L37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,K37:L37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
-      <c r="F37" s="143" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>70</v>
+      <c r="F37" s="143" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,M37,Fields,N37:O37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,M37:O37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
+      </c>
+      <c r="G37" s="21" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,P37,Fields,Q37:R37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,P37:R37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
+      </c>
+      <c r="H37" s="21" t="str">
+        <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,S37,Fields,T37:U37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,S37:U37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
+        <v>stopped</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="15" t="str">
@@ -10013,38 +10233,83 @@
       </c>
       <c r="K37" s="16">
         <f>'ON Pricing'!H37*100</f>
-        <v>2.9999999999958162</v>
+        <v>2.5350000000000086</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="16"/>
-        <v>2.9999999999958162</v>
-      </c>
-      <c r="M37" s="125"/>
-      <c r="N37" s="126"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
+        <v>2.5350000000000086</v>
+      </c>
+      <c r="M37" s="125" t="str">
+        <f>Currency&amp;$M$4&amp;D37&amp;"="</f>
+        <v>AUD1M9Y=</v>
+      </c>
+      <c r="N37" s="126">
+        <f>'1M Pricing'!H37*100</f>
+        <v>2.6426561086205167</v>
+      </c>
+      <c r="O37" s="126">
+        <f t="shared" si="17"/>
+        <v>2.6426561086205167</v>
+      </c>
+      <c r="P37" s="15" t="str">
+        <f>Currency&amp;$P$4&amp;D37&amp;"="</f>
+        <v>AUD3M9Y=</v>
+      </c>
+      <c r="Q37" s="16">
+        <f>'3M Pricing'!H37*100</f>
+        <v>2.734384975458823</v>
+      </c>
+      <c r="R37" s="16">
+        <f t="shared" si="18"/>
+        <v>2.734384975458823</v>
+      </c>
+      <c r="S37" s="15" t="str">
+        <f>Currency&amp;$S$4&amp;D37&amp;"="</f>
+        <v>AUD6M9Y=</v>
+      </c>
+      <c r="T37" s="16">
+        <f>'6M Pricing'!H37*100</f>
+        <v>2.8312499999999829</v>
+      </c>
+      <c r="U37" s="16">
+        <f t="shared" si="19"/>
+        <v>2.8312499999999829</v>
+      </c>
       <c r="V37" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J37,BID)-K37)</f>
-        <v>4.1837644459974399E-12</v>
+        <v>8.4376949871511897E-15</v>
       </c>
       <c r="X37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J37,ASK)-L37)</f>
-        <v>4.1837644459974399E-12</v>
-      </c>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
+        <v>8.4376949871511897E-15</v>
+      </c>
+      <c r="Y37" s="127">
+        <f>ABS(_xll.RtGet(SourceAlias,$M37,BID)-N37)</f>
+        <v>2.6426561086205167</v>
+      </c>
+      <c r="Z37" s="127">
+        <f>ABS(_xll.RtGet(SourceAlias,$M37,ASK)-O37)</f>
+        <v>2.6426561086205167</v>
+      </c>
+      <c r="AA37" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$P37,BID)-Q37)</f>
+        <v>2.734384975458823</v>
+      </c>
+      <c r="AB37" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$P37,ASK)-R37)</f>
+        <v>2.734384975458823</v>
+      </c>
+      <c r="AC37" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
+        <v>2.8312499999999829</v>
+      </c>
+      <c r="AD37" s="16">
+        <f>ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
+        <v>2.8312499999999829</v>
+      </c>
       <c r="AE37" s="41" t="s">
         <v>70</v>
       </c>
@@ -10105,82 +10370,82 @@
       </c>
       <c r="K38" s="16">
         <f>'ON Pricing'!H38*100</f>
-        <v>3.0949999999967877</v>
+        <v>2.6279999999999948</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="16"/>
-        <v>3.0949999999967877</v>
+        <v>2.6279999999999948</v>
       </c>
       <c r="M38" s="125" t="str">
-        <f t="shared" ref="M38:M43" si="17">Currency&amp;$M$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="M38:M43" si="20">Currency&amp;$M$4&amp;D38&amp;"="</f>
         <v>AUD1M10Y=</v>
       </c>
       <c r="N38" s="126">
         <f>'1M Pricing'!H38*100</f>
-        <v>3.1701347625361502</v>
+        <v>2.7206662243399506</v>
       </c>
       <c r="O38" s="126">
-        <f t="shared" ref="O38:O43" si="18">N38</f>
-        <v>3.1701347625361502</v>
+        <f t="shared" ref="O38:O43" si="21">N38</f>
+        <v>2.7206662243399506</v>
       </c>
       <c r="P38" s="15" t="str">
-        <f t="shared" ref="P38:P43" si="19">Currency&amp;$P$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="P38:P43" si="22">Currency&amp;$P$4&amp;D38&amp;"="</f>
         <v>AUD3M10Y=</v>
       </c>
       <c r="Q38" s="16">
         <f>'3M Pricing'!H38*100</f>
-        <v>3.2484107479366378</v>
+        <v>2.8117579998211162</v>
       </c>
       <c r="R38" s="16">
-        <f t="shared" ref="R38:R43" si="20">Q38</f>
-        <v>3.2484107479366378</v>
+        <f t="shared" ref="R38:R43" si="23">Q38</f>
+        <v>2.8117579998211162</v>
       </c>
       <c r="S38" s="15" t="str">
-        <f t="shared" ref="S38:S43" si="21">Currency&amp;$S$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="S38:S43" si="24">Currency&amp;$S$4&amp;D38&amp;"="</f>
         <v>AUD6M10Y=</v>
       </c>
       <c r="T38" s="16">
         <f>'6M Pricing'!H38*100</f>
-        <v>3.339999999996361</v>
+        <v>2.9049999999997236</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" ref="U38:U43" si="22">T38</f>
-        <v>3.339999999996361</v>
+        <f t="shared" ref="U38:U43" si="25">T38</f>
+        <v>2.9049999999997236</v>
       </c>
       <c r="V38" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J38,BID)-K38)</f>
-        <v>3.212541344055353E-12</v>
+        <v>5.3290705182007514E-15</v>
       </c>
       <c r="X38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J38,ASK)-L38)</f>
-        <v>3.212541344055353E-12</v>
+        <v>5.3290705182007514E-15</v>
       </c>
       <c r="Y38" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
-        <v>2.4463850056832825E-8</v>
+        <v>3.3995073422943278E-10</v>
       </c>
       <c r="Z38" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
-        <v>2.4463850056832825E-8</v>
+        <v>3.3995073422943278E-10</v>
       </c>
       <c r="AA38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
-        <v>3.0063362466137278E-8</v>
+        <v>1.7888401870891357E-10</v>
       </c>
       <c r="AB38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
-        <v>3.0063362466137278E-8</v>
+        <v>1.7888401870891357E-10</v>
       </c>
       <c r="AC38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>3.6388669855114131E-12</v>
+        <v>2.7666757773658901E-13</v>
       </c>
       <c r="AD38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>3.6388669855114131E-12</v>
+        <v>2.7666757773658901E-13</v>
       </c>
       <c r="AE38" s="41" t="s">
         <v>70</v>
@@ -10242,82 +10507,82 @@
       </c>
       <c r="K39" s="16">
         <f>'ON Pricing'!H39*100</f>
-        <v>3.2380000000007145</v>
+        <v>2.7550000000015165</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="16"/>
-        <v>3.2380000000007145</v>
+        <v>2.7550000000015165</v>
       </c>
       <c r="M39" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>AUD1M12Y=</v>
       </c>
       <c r="N39" s="126">
         <f>'1M Pricing'!H39*100</f>
-        <v>3.312035867659433</v>
+        <v>2.8492323964524133</v>
       </c>
       <c r="O39" s="126">
-        <f t="shared" si="18"/>
-        <v>3.312035867659433</v>
+        <f t="shared" si="21"/>
+        <v>2.8492323964524133</v>
       </c>
       <c r="P39" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>AUD3M12Y=</v>
       </c>
       <c r="Q39" s="16">
         <f>'3M Pricing'!H39*100</f>
-        <v>3.3898081511269664</v>
+        <v>2.9396551679417535</v>
       </c>
       <c r="R39" s="16">
-        <f t="shared" si="20"/>
-        <v>3.3898081511269664</v>
+        <f t="shared" si="23"/>
+        <v>2.9396551679417535</v>
       </c>
       <c r="S39" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>AUD6M12Y=</v>
       </c>
       <c r="T39" s="16">
         <f>'6M Pricing'!H39*100</f>
-        <v>3.4749999999973338</v>
+        <v>3.0249999999997961</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" si="22"/>
-        <v>3.4749999999973338</v>
+        <f t="shared" si="25"/>
+        <v>3.0249999999997961</v>
       </c>
       <c r="V39" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J39,BID)-K39)</f>
-        <v>7.1453953864875075E-13</v>
+        <v>1.5165646516379638E-12</v>
       </c>
       <c r="X39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J39,ASK)-L39)</f>
-        <v>7.1453953864875075E-13</v>
+        <v>1.5165646516379638E-12</v>
       </c>
       <c r="Y39" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
-        <v>2.1340567091243656E-8</v>
+        <v>4.5241321799949219E-10</v>
       </c>
       <c r="Z39" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
-        <v>2.1340567091243656E-8</v>
+        <v>4.5241321799949219E-10</v>
       </c>
       <c r="AA39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
-        <v>2.6873033576180205E-8</v>
+        <v>5.8246296674724363E-11</v>
       </c>
       <c r="AB39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
-        <v>2.6873033576180205E-8</v>
+        <v>5.8246296674724363E-11</v>
       </c>
       <c r="AC39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>2.6663116159397759E-12</v>
+        <v>2.0383694732117874E-13</v>
       </c>
       <c r="AD39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>2.6663116159397759E-12</v>
+        <v>2.0383694732117874E-13</v>
       </c>
       <c r="AE39" s="41" t="s">
         <v>70</v>
@@ -10379,82 +10644,82 @@
       </c>
       <c r="K40" s="16">
         <f>'ON Pricing'!H40*100</f>
-        <v>3.3800000000001273</v>
+        <v>2.8979999999973884</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="16"/>
-        <v>3.3800000000001273</v>
+        <v>2.8979999999973884</v>
       </c>
       <c r="M40" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>AUD1M15Y=</v>
       </c>
       <c r="N40" s="126">
         <f>'1M Pricing'!H40*100</f>
-        <v>3.4538601927584303</v>
+        <v>2.9875957114941247</v>
       </c>
       <c r="O40" s="126">
-        <f t="shared" si="18"/>
-        <v>3.4538601927584303</v>
+        <f t="shared" si="21"/>
+        <v>2.9875957114941247</v>
       </c>
       <c r="P40" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>AUD3M15Y=</v>
       </c>
       <c r="Q40" s="16">
         <f>'3M Pricing'!H40*100</f>
-        <v>3.5324118173613814</v>
+        <v>3.0786840322286344</v>
       </c>
       <c r="R40" s="16">
-        <f t="shared" si="20"/>
-        <v>3.5324118173613814</v>
+        <f t="shared" si="23"/>
+        <v>3.0786840322286344</v>
       </c>
       <c r="S40" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>AUD6M15Y=</v>
       </c>
       <c r="T40" s="16">
         <f>'6M Pricing'!H40*100</f>
-        <v>3.6100000000001673</v>
+        <v>3.1524999999998853</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="22"/>
-        <v>3.6100000000001673</v>
+        <f t="shared" si="25"/>
+        <v>3.1524999999998853</v>
       </c>
       <c r="V40" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J40,BID)-K40)</f>
-        <v>1.2745360322696797E-13</v>
+        <v>2.6116886431282182E-12</v>
       </c>
       <c r="X40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J40,ASK)-L40)</f>
-        <v>1.2745360322696797E-13</v>
+        <v>2.6116886431282182E-12</v>
       </c>
       <c r="Y40" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,BID)-N40)</f>
-        <v>1.8241570032273557E-8</v>
+        <v>4.9412474112386917E-10</v>
       </c>
       <c r="Z40" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,ASK)-O40)</f>
-        <v>1.8241570032273557E-8</v>
+        <v>4.9412474112386917E-10</v>
       </c>
       <c r="AA40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,BID)-Q40)</f>
-        <v>2.3638618618093687E-8</v>
+        <v>2.2863444470999639E-10</v>
       </c>
       <c r="AB40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,ASK)-R40)</f>
-        <v>2.3638618618093687E-8</v>
+        <v>2.2863444470999639E-10</v>
       </c>
       <c r="AC40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,BID)-T40)</f>
-        <v>1.6742163211347361E-13</v>
+        <v>1.1457501614131615E-13</v>
       </c>
       <c r="AD40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,ASK)-U40)</f>
-        <v>1.6742163211347361E-13</v>
+        <v>1.1457501614131615E-13</v>
       </c>
       <c r="AE40" s="41" t="s">
         <v>70</v>
@@ -10516,82 +10781,82 @@
       </c>
       <c r="K41" s="16">
         <f>'ON Pricing'!H41*100</f>
-        <v>3.4799999999998112</v>
+        <v>3.0299999999991676</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="16"/>
-        <v>3.4799999999998112</v>
+        <v>3.0299999999991676</v>
       </c>
       <c r="M41" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>AUD1M20Y=</v>
       </c>
       <c r="N41" s="126">
         <f>'1M Pricing'!H41*100</f>
-        <v>3.5512351522428194</v>
+        <v>3.1197307592031769</v>
       </c>
       <c r="O41" s="126">
-        <f t="shared" si="18"/>
-        <v>3.5512351522428194</v>
+        <f t="shared" si="21"/>
+        <v>3.1197307592031769</v>
       </c>
       <c r="P41" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>AUD3M20Y=</v>
       </c>
       <c r="Q41" s="16">
         <f>'3M Pricing'!H41*100</f>
-        <v>3.6303461428665988</v>
+        <v>3.2114740531119947</v>
       </c>
       <c r="R41" s="16">
-        <f t="shared" si="20"/>
-        <v>3.6303461428665988</v>
+        <f t="shared" si="23"/>
+        <v>3.2114740531119947</v>
       </c>
       <c r="S41" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>AUD6M20Y=</v>
       </c>
       <c r="T41" s="16">
         <f>'6M Pricing'!H41*100</f>
-        <v>3.7024999999975781</v>
+        <v>3.2775000000032568</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="22"/>
-        <v>3.7024999999975781</v>
+        <f t="shared" si="25"/>
+        <v>3.2775000000032568</v>
       </c>
       <c r="V41" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J41,BID)-K41)</f>
-        <v>1.8873791418627661E-13</v>
+        <v>8.3222317925901734E-13</v>
       </c>
       <c r="X41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J41,ASK)-L41)</f>
-        <v>1.8873791418627661E-13</v>
+        <v>8.3222317925901734E-13</v>
       </c>
       <c r="Y41" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M41,BID)-N41)</f>
-        <v>1.5757180893416489E-8</v>
+        <v>2.0317703075534155E-10</v>
       </c>
       <c r="Z41" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M41,ASK)-O41)</f>
-        <v>1.5757180893416489E-8</v>
+        <v>2.0317703075534155E-10</v>
       </c>
       <c r="AA41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P41,BID)-Q41)</f>
-        <v>1.9133401529813909E-8</v>
+        <v>1.1199485783208729E-10</v>
       </c>
       <c r="AB41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P41,ASK)-R41)</f>
-        <v>1.9133401529813909E-8</v>
+        <v>1.1199485783208729E-10</v>
       </c>
       <c r="AC41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,BID)-T41)</f>
-        <v>2.4220625505222415E-12</v>
+        <v>3.2569502650403592E-12</v>
       </c>
       <c r="AD41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,ASK)-U41)</f>
-        <v>2.4220625505222415E-12</v>
+        <v>3.2569502650403592E-12</v>
       </c>
       <c r="AE41" s="41" t="s">
         <v>70</v>
@@ -10653,82 +10918,82 @@
       </c>
       <c r="K42" s="16">
         <f>'ON Pricing'!H42*100</f>
-        <v>3.5179999999962503</v>
+        <v>3.0680000000057985</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="16"/>
-        <v>3.5179999999962503</v>
+        <v>3.0680000000057985</v>
       </c>
       <c r="M42" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>AUD1M25Y=</v>
       </c>
       <c r="N42" s="126">
         <f>'1M Pricing'!H42*100</f>
-        <v>3.5906988798055859</v>
+        <v>3.1567853502797947</v>
       </c>
       <c r="O42" s="126">
-        <f t="shared" si="18"/>
-        <v>3.5906988798055859</v>
+        <f t="shared" si="21"/>
+        <v>3.1567853502797947</v>
       </c>
       <c r="P42" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>AUD3M25Y=</v>
       </c>
       <c r="Q42" s="16">
         <f>'3M Pricing'!H42*100</f>
-        <v>3.6700333068239415</v>
+        <v>3.2487188521328978</v>
       </c>
       <c r="R42" s="16">
-        <f t="shared" si="20"/>
-        <v>3.6700333068239415</v>
+        <f t="shared" si="23"/>
+        <v>3.2487188521328978</v>
       </c>
       <c r="S42" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>AUD6M25Y=</v>
       </c>
       <c r="T42" s="16">
         <f>'6M Pricing'!H42*100</f>
-        <v>3.7374999999978993</v>
+        <v>3.3074999999981349</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="22"/>
-        <v>3.7374999999978993</v>
+        <f t="shared" si="25"/>
+        <v>3.3074999999981349</v>
       </c>
       <c r="V42" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J42,BID)-K42)</f>
-        <v>3.7498892879739287E-12</v>
+        <v>5.7984728130122676E-12</v>
       </c>
       <c r="X42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J42,ASK)-L42)</f>
-        <v>3.7498892879739287E-12</v>
+        <v>5.7984728130122676E-12</v>
       </c>
       <c r="Y42" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M42,BID)-N42)</f>
-        <v>1.3194414449912983E-8</v>
+        <v>2.7979485395235315E-10</v>
       </c>
       <c r="Z42" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M42,ASK)-O42)</f>
-        <v>1.3194414449912983E-8</v>
+        <v>2.7979485395235315E-10</v>
       </c>
       <c r="AA42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P42,BID)-Q42)</f>
-        <v>1.7176058797474525E-8</v>
+        <v>1.3289769285051989E-10</v>
       </c>
       <c r="AB42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P42,ASK)-R42)</f>
-        <v>1.7176058797474525E-8</v>
+        <v>1.3289769285051989E-10</v>
       </c>
       <c r="AC42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,BID)-T42)</f>
-        <v>2.1009860518006462E-12</v>
+        <v>1.865174681370263E-12</v>
       </c>
       <c r="AD42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,ASK)-U42)</f>
-        <v>2.1009860518006462E-12</v>
+        <v>1.865174681370263E-12</v>
       </c>
       <c r="AE42" s="41" t="s">
         <v>70</v>
@@ -10790,82 +11055,82 @@
       </c>
       <c r="K43" s="18">
         <f>'ON Pricing'!H43*100</f>
-        <v>3.5349999999995148</v>
+        <v>3.0580000000026133</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" si="16"/>
-        <v>3.5349999999995148</v>
+        <v>3.0580000000026133</v>
       </c>
       <c r="M43" s="138" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>AUD1M30Y=</v>
       </c>
       <c r="N43" s="139">
         <f>'1M Pricing'!H43*100</f>
-        <v>3.6079739530426895</v>
+        <v>3.1469489264164445</v>
       </c>
       <c r="O43" s="139">
-        <f t="shared" si="18"/>
-        <v>3.6079739530426895</v>
+        <f t="shared" si="21"/>
+        <v>3.1469489264164445</v>
       </c>
       <c r="P43" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>AUD3M30Y=</v>
       </c>
       <c r="Q43" s="18">
         <f>'3M Pricing'!H43*100</f>
-        <v>3.6874075997212303</v>
+        <v>3.2388300340975138</v>
       </c>
       <c r="R43" s="18">
-        <f t="shared" si="20"/>
-        <v>3.6874075997212303</v>
+        <f t="shared" si="23"/>
+        <v>3.2388300340975138</v>
       </c>
       <c r="S43" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>AUD6M30Y=</v>
       </c>
       <c r="T43" s="18">
         <f>'6M Pricing'!H43*100</f>
-        <v>3.7499999999999991</v>
+        <v>3.2900000000051977</v>
       </c>
       <c r="U43" s="18">
-        <f t="shared" si="22"/>
-        <v>3.7499999999999991</v>
+        <f t="shared" si="25"/>
+        <v>3.2900000000051977</v>
       </c>
       <c r="V43" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$J43,BID)-K43)</f>
-        <v>4.8538950636611844E-13</v>
+        <v>2.6134649999676185E-12</v>
       </c>
       <c r="X43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$J43,ASK)-L43)</f>
-        <v>4.8538950636611844E-13</v>
+        <v>2.6134649999676185E-12</v>
       </c>
       <c r="Y43" s="140">
         <f>ABS(_xll.RtGet(SourceAlias,$M43,BID)-N43)</f>
-        <v>1.1957310697141565E-8</v>
+        <v>4.1644465653689622E-10</v>
       </c>
       <c r="Z43" s="140">
         <f>ABS(_xll.RtGet(SourceAlias,$M43,ASK)-O43)</f>
-        <v>1.1957310697141565E-8</v>
+        <v>4.1644465653689622E-10</v>
       </c>
       <c r="AA43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P43,BID)-Q43)</f>
-        <v>1.5278769804893955E-8</v>
+        <v>9.7513996877296449E-11</v>
       </c>
       <c r="AB43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P43,ASK)-R43)</f>
-        <v>1.5278769804893955E-8</v>
+        <v>9.7513996877296449E-11</v>
       </c>
       <c r="AC43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,BID)-T43)</f>
-        <v>8.8817841970012523E-16</v>
+        <v>5.1976201120851329E-12</v>
       </c>
       <c r="AD43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,ASK)-U43)</f>
-        <v>8.8817841970012523E-16</v>
+        <v>5.1976201120851329E-12</v>
       </c>
       <c r="AE43" s="41" t="s">
         <v>70</v>
@@ -14385,19 +14650,19 @@
     <mergeCell ref="C25:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"abcd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:H43">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N6:N12 N25:N43 O6:O43 Q6:U43" evalError="1"/>
+    <ignoredError sqref="N6:N12 N25:N33 O6:O33 Q6:U33 Q38:U43 N38:N43 O38:O43" evalError="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -14604,19 +14869,19 @@
       </c>
       <c r="E6" s="162">
         <f t="shared" ref="E6" si="0">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F6" s="162">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E6,)</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="G6" s="162">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F6)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlIndexFixing(OvernightIndex,E6,TRUE,InterestRatesTrigger)</f>
-        <v>2.0001511019915874E-2</v>
+        <v>2.0015012149047218E-2</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>Contribution!J6</f>
@@ -14652,19 +14917,19 @@
       </c>
       <c r="E7" s="156">
         <f>G6</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="F7" s="156">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G7" s="156">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="H7" s="157">
         <f>_xll.qlIndexFixing(OvernightIndex,E7,TRUE,InterestRatesTrigger)</f>
-        <v>2.0001111196568111E-2</v>
+        <v>2.0009032669434379E-2</v>
       </c>
       <c r="I7" s="153" t="str">
         <f>Contribution!J7</f>
@@ -14698,19 +14963,19 @@
       </c>
       <c r="E8" s="159">
         <f>G6</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="F8" s="159">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E8,)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G8" s="159">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F8)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="H8" s="160">
         <f>_xll.qlIndexFixing(OvernightIndex,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.0001111196568111E-2</v>
+        <v>2.0009032669434379E-2</v>
       </c>
       <c r="I8" s="154" t="str">
         <f>Contribution!J8</f>
@@ -14753,15 +15018,15 @@
       <c r="E9" s="48"/>
       <c r="F9" s="48">
         <f>_xll.qlSwapStartDate(L9)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlSwapMaturityDate(L9)</f>
-        <v>42144</v>
+        <v>42286</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L9,InterestRatesTrigger)</f>
-        <v>2.0000000031379996E-2</v>
+        <v>2.0000000024282656E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!J9</f>
@@ -14774,7 +15039,7 @@
       <c r="K9" s="61"/>
       <c r="L9" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C9,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_0040a#0001</v>
+        <v>obj_002cb#0000</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="87" t="s">
@@ -14810,22 +15075,22 @@
       </c>
       <c r="F10" s="48">
         <f>_xll.qlSwapStartDate(L10)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlSwapMaturityDate(L10)</f>
-        <v>42151</v>
+        <v>42293</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L10,InterestRatesTrigger)</f>
-        <v>1.9994258393913809E-2</v>
+        <v>1.9965901707492444E-2</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="60"/>
       <c r="L10" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C10,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003c7#0001</v>
+        <v>obj_002d7#0000</v>
       </c>
       <c r="M10" s="92"/>
       <c r="N10" s="41"/>
@@ -14853,22 +15118,22 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48">
         <f>_xll.qlSwapStartDate(L11)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlSwapMaturityDate(L11)</f>
-        <v>42158</v>
+        <v>42300</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L11,InterestRatesTrigger)</f>
-        <v>1.9987394110625445E-2</v>
+        <v>1.992282779115525E-2</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="60"/>
       <c r="L11" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C11,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_00409#0001</v>
+        <v>obj_002c3#0000</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -14896,15 +15161,15 @@
       <c r="E12" s="48"/>
       <c r="F12" s="48">
         <f>_xll.qlSwapStartDate(L12)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlSwapMaturityDate(L12)</f>
-        <v>42170</v>
+        <v>42310</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L12,InterestRatesTrigger)</f>
-        <v>1.9974999995644685E-2</v>
+        <v>1.9849999999516303E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!J12</f>
@@ -14917,7 +15182,7 @@
       <c r="K12" s="60"/>
       <c r="L12" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C12,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003ce#0001</v>
+        <v>obj_002c9#0000</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
@@ -14945,15 +15210,15 @@
       <c r="E13" s="48"/>
       <c r="F13" s="48">
         <f>_xll.qlSwapStartDate(L13)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlSwapMaturityDate(L13)</f>
-        <v>42198</v>
+        <v>42340</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L13,InterestRatesTrigger)</f>
-        <v>1.9925000002474103E-2</v>
+        <v>1.9575000000068468E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!J13</f>
@@ -14966,7 +15231,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C13,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_00406#0001</v>
+        <v>obj_002ce#0000</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -14994,15 +15259,15 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48">
         <f>_xll.qlSwapStartDate(L14)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlSwapMaturityDate(L14)</f>
-        <v>42229</v>
+        <v>42373</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L14,InterestRatesTrigger)</f>
-        <v>1.9825000001864251E-2</v>
+        <v>1.9289999999986499E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!J14</f>
@@ -15015,7 +15280,7 @@
       <c r="K14" s="60"/>
       <c r="L14" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C14,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_00415#0001</v>
+        <v>obj_002c7#0000</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -15043,15 +15308,15 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48">
         <f>_xll.qlSwapStartDate(L15)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlSwapMaturityDate(L15)</f>
-        <v>42261</v>
+        <v>42402</v>
       </c>
       <c r="H15" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L15,InterestRatesTrigger)</f>
-        <v>1.9735000001536808E-2</v>
+        <v>1.9150000000003307E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!J15</f>
@@ -15064,7 +15329,7 @@
       <c r="K15" s="60"/>
       <c r="L15" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C15,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003f9#0001</v>
+        <v>obj_002d9#0000</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -15092,15 +15357,15 @@
       <c r="E16" s="48"/>
       <c r="F16" s="48">
         <f>_xll.qlSwapStartDate(L16)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlSwapMaturityDate(L16)</f>
-        <v>42290</v>
+        <v>42431</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L16,InterestRatesTrigger)</f>
-        <v>1.963500000111559E-2</v>
+        <v>1.8925000000000029E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!J16</f>
@@ -15113,7 +15378,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C16,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003f3#0001</v>
+        <v>obj_002c5#0000</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -15141,15 +15406,15 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48">
         <f>_xll.qlSwapStartDate(L17)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlSwapMaturityDate(L17)</f>
-        <v>42321</v>
+        <v>42464</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L17,InterestRatesTrigger)</f>
-        <v>1.9600000000998225E-2</v>
+        <v>1.8675000000000372E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!J17</f>
@@ -15162,7 +15427,7 @@
       <c r="K17" s="60"/>
       <c r="L17" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C17,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003cf#0001</v>
+        <v>obj_002d1#0000</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -15190,15 +15455,15 @@
       <c r="E18" s="49"/>
       <c r="F18" s="49">
         <f>_xll.qlSwapStartDate(L18)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G18" s="49">
         <f>_xll.qlSwapMaturityDate(L18)</f>
-        <v>42415</v>
+        <v>42555</v>
       </c>
       <c r="H18" s="50">
         <f>_xll.qlOvernightIndexedSwapFairRate(L18,InterestRatesTrigger)</f>
-        <v>1.9474999999999961E-2</v>
+        <v>1.8100000000000005E-2</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>Contribution!J18</f>
@@ -15211,7 +15476,7 @@
       <c r="K18" s="60"/>
       <c r="L18" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C18,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003ed#0001</v>
+        <v>obj_002d5#0000</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -15482,15 +15747,15 @@
       <c r="E28" s="48"/>
       <c r="F28" s="48">
         <f>_xll.qlSwapStartDate(L28)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlSwapMaturityDate(L28)</f>
-        <v>42503</v>
+        <v>42647</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L28,InterestRatesTrigger)</f>
-        <v>1.9579999999999945E-2</v>
+        <v>1.7729999999999912E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!J28</f>
@@ -15503,7 +15768,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C28,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003db#0001</v>
+        <v>obj_002cf#0000</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
@@ -15531,15 +15796,15 @@
       <c r="E29" s="48"/>
       <c r="F29" s="48">
         <f>_xll.qlSwapStartDate(L29)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlSwapMaturityDate(L29)</f>
-        <v>42688</v>
+        <v>42828</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L29,InterestRatesTrigger)</f>
-        <v>1.9999999999999917E-2</v>
+        <v>1.7449999999999893E-2</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!J29</f>
@@ -15552,7 +15817,7 @@
       <c r="K29" s="60"/>
       <c r="L29" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C29,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003d1#0001</v>
+        <v>obj_002cc#0000</v>
       </c>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -15580,15 +15845,15 @@
       <c r="E30" s="48"/>
       <c r="F30" s="48">
         <f>_xll.qlSwapStartDate(L30)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlSwapMaturityDate(L30)</f>
-        <v>42870</v>
+        <v>43011</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L30,InterestRatesTrigger)</f>
-        <v>2.0799999999999961E-2</v>
+        <v>1.7650000000000055E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!J30</f>
@@ -15601,7 +15866,7 @@
       <c r="K30" s="60"/>
       <c r="L30" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C30,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_00428#0001</v>
+        <v>obj_002d2#0000</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -15629,15 +15894,15 @@
       <c r="E31" s="48"/>
       <c r="F31" s="48">
         <f>_xll.qlSwapStartDate(L31)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlSwapMaturityDate(L31)</f>
-        <v>43234</v>
+        <v>43375</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L31,InterestRatesTrigger)</f>
-        <v>2.240000000000001E-2</v>
+        <v>1.8449999999999942E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!J31</f>
@@ -15650,7 +15915,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C31,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003e2#0001</v>
+        <v>obj_002cd#0000</v>
       </c>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -15678,15 +15943,15 @@
       <c r="E32" s="48"/>
       <c r="F32" s="48">
         <f>_xll.qlSwapStartDate(L32)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlSwapMaturityDate(L32)</f>
-        <v>43598</v>
+        <v>43740</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L32,InterestRatesTrigger)</f>
-        <v>2.3899999999736559E-2</v>
+        <v>1.959999999999994E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!J32</f>
@@ -15699,7 +15964,7 @@
       <c r="K32" s="60"/>
       <c r="L32" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C32,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003c3#0001</v>
+        <v>obj_002c8#0000</v>
       </c>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -15727,15 +15992,15 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48">
         <f>_xll.qlSwapStartDate(L33)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlSwapMaturityDate(L33)</f>
-        <v>43964</v>
+        <v>44106</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L33,InterestRatesTrigger)</f>
-        <v>2.5429999999836739E-2</v>
+        <v>2.0949999999999958E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!J33</f>
@@ -15748,7 +16013,7 @@
       <c r="K33" s="60"/>
       <c r="L33" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C33,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_00425#0001</v>
+        <v>obj_002c2#0000</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -15776,15 +16041,15 @@
       <c r="E34" s="48"/>
       <c r="F34" s="48">
         <f>_xll.qlSwapStartDate(L34)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlSwapMaturityDate(L34)</f>
-        <v>44329</v>
+        <v>44474</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L34,InterestRatesTrigger)</f>
-        <v>2.6779999999891391E-2</v>
+        <v>2.225000000000002E-2</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!J34</f>
@@ -15797,7 +16062,7 @@
       <c r="K34" s="60"/>
       <c r="L34" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C34,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003ff#0001</v>
+        <v>obj_002c6#0000</v>
       </c>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -15825,15 +16090,15 @@
       <c r="E35" s="48"/>
       <c r="F35" s="48">
         <f>_xll.qlSwapStartDate(L35)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlSwapMaturityDate(L35)</f>
-        <v>44694</v>
+        <v>44838</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L35,InterestRatesTrigger)</f>
-        <v>2.8129999999923778E-2</v>
+        <v>2.3529999999999995E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!J35</f>
@@ -15846,7 +16111,7 @@
       <c r="K35" s="60"/>
       <c r="L35" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C35,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003cd#0001</v>
+        <v>obj_002d6#0000</v>
       </c>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -15874,15 +16139,15 @@
       <c r="E36" s="48"/>
       <c r="F36" s="48">
         <f>_xll.qlSwapStartDate(L36)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlSwapMaturityDate(L36)</f>
-        <v>45061</v>
+        <v>45202</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L36,InterestRatesTrigger)</f>
-        <v>2.9079999999944001E-2</v>
+        <v>2.4450000000000048E-2</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!J36</f>
@@ -15895,7 +16160,7 @@
       <c r="K36" s="60"/>
       <c r="L36" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C36,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_0041c#0001</v>
+        <v>obj_002d3#0000</v>
       </c>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
@@ -15923,15 +16188,15 @@
       <c r="E37" s="48"/>
       <c r="F37" s="48">
         <f>_xll.qlSwapStartDate(L37)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlSwapMaturityDate(L37)</f>
-        <v>45425</v>
+        <v>45567</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L37,InterestRatesTrigger)</f>
-        <v>2.9999999999958161E-2</v>
+        <v>2.5350000000000084E-2</v>
       </c>
       <c r="I37" s="38" t="str">
         <f>Contribution!J37</f>
@@ -15944,7 +16209,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C37,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003dc#0001</v>
+        <v>obj_002c1#0000</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -15972,15 +16237,15 @@
       <c r="E38" s="48"/>
       <c r="F38" s="48">
         <f>_xll.qlSwapStartDate(L38)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlSwapMaturityDate(L38)</f>
-        <v>45790</v>
+        <v>45932</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L38,InterestRatesTrigger)</f>
-        <v>3.0949999999967875E-2</v>
+        <v>2.6279999999999949E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!J38</f>
@@ -15993,7 +16258,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C38,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003ca#0001</v>
+        <v>obj_002ca#0000</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -16021,15 +16286,15 @@
       <c r="E39" s="48"/>
       <c r="F39" s="48">
         <f>_xll.qlSwapStartDate(L39)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlSwapMaturityDate(L39)</f>
-        <v>46520</v>
+        <v>46665</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L39,InterestRatesTrigger)</f>
-        <v>3.2380000000007146E-2</v>
+        <v>2.7550000000015167E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!J39</f>
@@ -16042,7 +16307,7 @@
       <c r="K39" s="60"/>
       <c r="L39" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C39,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003e5#0001</v>
+        <v>obj_002d0#0000</v>
       </c>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -16070,15 +16335,15 @@
       <c r="E40" s="48"/>
       <c r="F40" s="48">
         <f>_xll.qlSwapStartDate(L40)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlSwapMaturityDate(L40)</f>
-        <v>47616</v>
+        <v>47758</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L40,InterestRatesTrigger)</f>
-        <v>3.3800000000001273E-2</v>
+        <v>2.8979999999973884E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!J40</f>
@@ -16091,7 +16356,7 @@
       <c r="K40" s="60"/>
       <c r="L40" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C40,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_00423#0001</v>
+        <v>obj_002d8#0000</v>
       </c>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
@@ -16119,15 +16384,15 @@
       <c r="E41" s="48"/>
       <c r="F41" s="48">
         <f>_xll.qlSwapStartDate(L41)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlSwapMaturityDate(L41)</f>
-        <v>49443</v>
+        <v>49584</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L41,InterestRatesTrigger)</f>
-        <v>3.479999999999811E-2</v>
+        <v>3.0299999999991674E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!J41</f>
@@ -16140,7 +16405,7 @@
       <c r="K41" s="60"/>
       <c r="L41" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C41,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003e7#0001</v>
+        <v>obj_002da#0000</v>
       </c>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -16168,15 +16433,15 @@
       <c r="E42" s="48"/>
       <c r="F42" s="48">
         <f>_xll.qlSwapStartDate(L42)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlSwapMaturityDate(L42)</f>
-        <v>51270</v>
+        <v>51411</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L42,InterestRatesTrigger)</f>
-        <v>3.5179999999962505E-2</v>
+        <v>3.0680000000057984E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!J42</f>
@@ -16189,7 +16454,7 @@
       <c r="K42" s="60"/>
       <c r="L42" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C42,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003ec#0001</v>
+        <v>obj_002c4#0000</v>
       </c>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
@@ -16217,15 +16482,15 @@
       <c r="E43" s="48"/>
       <c r="F43" s="48">
         <f>_xll.qlSwapStartDate(L43)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G43" s="48">
         <f>_xll.qlSwapMaturityDate(L43)</f>
-        <v>53097</v>
+        <v>53238</v>
       </c>
       <c r="H43" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L43,InterestRatesTrigger)</f>
-        <v>3.5349999999995149E-2</v>
+        <v>3.0580000000026135E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!J43</f>
@@ -16238,7 +16503,7 @@
       <c r="K43" s="60"/>
       <c r="L43" s="31" t="str">
         <f>_xll.qlMakeOIS(,1,C43,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_003f0#0001</v>
+        <v>obj_002d4#0000</v>
       </c>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -18587,19 +18852,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E43" si="1">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.1171956381757451E-2</v>
+        <v>2.1957947280181151E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!M6</f>
@@ -18609,7 +18874,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_0042d#0057</v>
+        <v>obj_0032c#0000</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="91"/>
@@ -18629,7 +18894,7 @@
       <c r="A7" s="91"/>
       <c r="B7" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>97</v>
@@ -18639,19 +18904,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.116895001016517E-2</v>
+        <v>2.1902851663441917E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!M7</f>
@@ -18686,7 +18951,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -18696,19 +18961,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42139</v>
+        <v>42284</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,AllTriggers)</f>
-        <v>2.1165959315332383E-2</v>
+        <v>2.188924201343756E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!M8</f>
@@ -18718,7 +18983,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003c1#0000</v>
+        <v>obj_002ee#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -18744,7 +19009,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -18754,19 +19019,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42145</v>
+        <v>42290</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,AllTriggers)</f>
-        <v>2.1147466459753451E-2</v>
+        <v>2.1806434334148257E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!M9</f>
@@ -18776,7 +19041,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003dd#0000</v>
+        <v>obj_002f8#0000</v>
       </c>
       <c r="M9" s="85"/>
       <c r="N9" s="91"/>
@@ -18796,7 +19061,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -18806,19 +19071,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42152</v>
+        <v>42297</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,AllTriggers)</f>
-        <v>2.1123361943430737E-2</v>
+        <v>2.1703573336383588E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!M10</f>
@@ -18828,7 +19093,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003f6#0000</v>
+        <v>obj_002f2#0000</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="91"/>
@@ -18848,7 +19113,7 @@
       <c r="A11" s="91"/>
       <c r="B11" s="21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>18</v>
@@ -18858,19 +19123,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42159</v>
+        <v>42304</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,AllTriggers)</f>
-        <v>2.1099528839829261E-2</v>
+        <v>2.1596708505236935E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!M11</f>
@@ -18880,7 +19145,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00417#0000</v>
+        <v>obj_002f6#0000</v>
       </c>
       <c r="M11" s="85"/>
       <c r="N11" s="91"/>
@@ -18900,7 +19165,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -18910,19 +19175,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>42170</v>
+        <v>42314</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,AllTriggers)</f>
-        <v>2.1060524321801742E-2</v>
+        <v>2.1434624094785453E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!M12</f>
@@ -18932,7 +19197,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003f8#0000</v>
+        <v>obj_00304#0000</v>
       </c>
       <c r="M12" s="85"/>
       <c r="N12" s="91"/>
@@ -19291,19 +19556,19 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42229</v>
+        <v>42373</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,AllTriggers)</f>
-        <v>2.0767819881046132E-2</v>
+        <v>2.0542750527246786E-2</v>
       </c>
       <c r="I25" s="39" t="str">
         <f>Contribution!M25</f>
@@ -19313,7 +19578,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003fb#0000</v>
+        <v>obj_00325#0000</v>
       </c>
       <c r="M25" s="85"/>
       <c r="N25" s="87" t="s">
@@ -19346,19 +19611,19 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42321</v>
+        <v>42464</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,AllTriggers)</f>
-        <v>2.0401012997033108E-2</v>
+        <v>1.9560779838186035E-2</v>
       </c>
       <c r="I26" s="38" t="str">
         <f>Contribution!M26</f>
@@ -19368,7 +19633,7 @@
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00404#0000</v>
+        <v>obj_002df#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -19395,19 +19660,19 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42415</v>
+        <v>42555</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,AllTriggers)</f>
-        <v>2.0264170042589041E-2</v>
+        <v>1.8968149501868769E-2</v>
       </c>
       <c r="I27" s="38" t="str">
         <f>Contribution!M27</f>
@@ -19417,7 +19682,7 @@
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0040c#0000</v>
+        <v>obj_0030d#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -19444,19 +19709,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42503</v>
+        <v>42647</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,AllTriggers)</f>
-        <v>2.0265298354323634E-2</v>
+        <v>1.839620706741333E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!M28</f>
@@ -19466,7 +19731,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003eb#0000</v>
+        <v>obj_00327#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="91"/>
@@ -19493,26 +19758,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42688</v>
+        <v>42828</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,AllTriggers)</f>
-        <v>2.0769991064379198E-2</v>
+        <v>1.8128279159361115E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003f1#0000</v>
+        <v>obj_0030c#0000</v>
       </c>
       <c r="M29" s="92"/>
       <c r="N29" s="91"/>
@@ -19539,19 +19804,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42870</v>
+        <v>43011</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,AllTriggers)</f>
-        <v>2.1523433942296392E-2</v>
+        <v>1.8358853335825914E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!M30</f>
@@ -19561,7 +19826,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0040b#0000</v>
+        <v>obj_0031b#0000</v>
       </c>
       <c r="M30" s="92"/>
       <c r="N30" s="91"/>
@@ -19588,19 +19853,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>43234</v>
+        <v>43375</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,AllTriggers)</f>
-        <v>2.3130219083190115E-2</v>
+        <v>1.9193916237252157E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!M31</f>
@@ -19610,7 +19875,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d0#0000</v>
+        <v>obj_0031f#0000</v>
       </c>
       <c r="M31" s="92"/>
       <c r="N31" s="91"/>
@@ -19637,19 +19902,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43598</v>
+        <v>43740</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,AllTriggers)</f>
-        <v>2.4681980815037929E-2</v>
+        <v>2.04096252455769E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!M32</f>
@@ -19659,7 +19924,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e4#0000</v>
+        <v>obj_002e5#0000</v>
       </c>
       <c r="M32" s="92"/>
       <c r="N32" s="91"/>
@@ -19686,19 +19951,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43964</v>
+        <v>44106</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,AllTriggers)</f>
-        <v>2.6228406503368582E-2</v>
+        <v>2.182254081009178E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!M33</f>
@@ -19708,7 +19973,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003df#0000</v>
+        <v>obj_00317#0000</v>
       </c>
       <c r="M33" s="92"/>
       <c r="N33" s="91"/>
@@ -19735,26 +20000,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44329</v>
+        <v>44474</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,AllTriggers)</f>
-        <v>2.7654956759846402E-2</v>
+        <v>2.3228193934853449E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="41"/>
       <c r="L34" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e0#0000</v>
+        <v>obj_0030b#0000</v>
       </c>
       <c r="M34" s="92"/>
       <c r="N34" s="91"/>
@@ -19781,19 +20046,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44694</v>
+        <v>44838</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,AllTriggers)</f>
-        <v>2.8898336937756567E-2</v>
+        <v>2.4472911527432608E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!M35</f>
@@ -19803,7 +20068,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d8#0000</v>
+        <v>obj_002ec#0000</v>
       </c>
       <c r="M35" s="92"/>
       <c r="N35" s="91"/>
@@ -19830,26 +20095,26 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>45061</v>
+        <v>45202</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,AllTriggers)</f>
-        <v>2.995907987286945E-2</v>
+        <v>2.5525931241044037E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="41"/>
       <c r="L36" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0040e#0000</v>
+        <v>obj_002ed#0000</v>
       </c>
       <c r="M36" s="92"/>
       <c r="N36" s="91"/>
@@ -19876,26 +20141,26 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45425</v>
+        <v>45567</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,AllTriggers)</f>
-        <v>3.0875692697551874E-2</v>
+        <v>2.6426561086205166E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="41"/>
       <c r="L37" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00427#0000</v>
+        <v>obj_002ff#0000</v>
       </c>
       <c r="M37" s="92"/>
       <c r="N37" s="91"/>
@@ -19922,19 +20187,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45790</v>
+        <v>45932</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,AllTriggers)</f>
-        <v>3.1701347625361503E-2</v>
+        <v>2.7206662243399505E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!M38</f>
@@ -19944,7 +20209,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d9#0000</v>
+        <v>obj_002dc#0000</v>
       </c>
       <c r="M38" s="92"/>
       <c r="N38" s="91"/>
@@ -19971,19 +20236,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46520</v>
+        <v>46665</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,AllTriggers)</f>
-        <v>3.3120358676594332E-2</v>
+        <v>2.8492323964524134E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!M39</f>
@@ -19993,7 +20258,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003f4#0000</v>
+        <v>obj_00313#0000</v>
       </c>
       <c r="M39" s="92"/>
       <c r="N39" s="91"/>
@@ -20020,19 +20285,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47616</v>
+        <v>47758</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,AllTriggers)</f>
-        <v>3.4538601927584303E-2</v>
+        <v>2.9875957114941246E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!M40</f>
@@ -20042,7 +20307,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ef#0000</v>
+        <v>obj_00319#0000</v>
       </c>
       <c r="M40" s="92"/>
       <c r="N40" s="91"/>
@@ -20069,19 +20334,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49443</v>
+        <v>49584</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,AllTriggers)</f>
-        <v>3.5512351522428195E-2</v>
+        <v>3.1197307592031768E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!M41</f>
@@ -20091,7 +20356,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e1#0000</v>
+        <v>obj_00324#0000</v>
       </c>
       <c r="M41" s="92"/>
       <c r="N41" s="91"/>
@@ -20118,19 +20383,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51270</v>
+        <v>51411</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,AllTriggers)</f>
-        <v>3.5906988798055858E-2</v>
+        <v>3.1567853502797949E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!M42</f>
@@ -20140,7 +20405,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00418#0000</v>
+        <v>obj_002fb#0000</v>
       </c>
       <c r="M42" s="92"/>
       <c r="N42" s="91"/>
@@ -20167,19 +20432,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>53097</v>
+        <v>53238</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,AllTriggers)</f>
-        <v>3.6079739530426896E-2</v>
+        <v>3.1469489264164444E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!M43</f>
@@ -20189,7 +20454,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="56" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c8#0000</v>
+        <v>obj_0030f#0000</v>
       </c>
       <c r="M43" s="92"/>
       <c r="N43" s="91"/>
@@ -22938,19 +23203,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.2026937443966985E-2</v>
+        <v>2.2264558234662144E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!P6</f>
@@ -22960,7 +23225,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_0042a#0059</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="6"/>
@@ -22980,7 +23245,7 @@
       <c r="A7" s="91"/>
       <c r="B7" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>97</v>
@@ -22990,19 +23255,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.2026637818537739E-2</v>
+        <v>2.2286181616362383E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!P7</f>
@@ -23037,7 +23302,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -23047,19 +23312,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42139</v>
+        <v>42284</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.2026357777602534E-2</v>
+        <v>2.2291981249153991E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!P8</f>
@@ -23069,7 +23334,7 @@
       <c r="K8" s="91"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003de#0000</v>
+        <v>obj_00302#0000</v>
       </c>
       <c r="M8" s="91"/>
       <c r="N8" s="87" t="b">
@@ -23095,7 +23360,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -23105,19 +23370,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42145</v>
+        <v>42290</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.2023992074699912E-2</v>
+        <v>2.2324022534337802E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!P9</f>
@@ -23127,7 +23392,7 @@
       <c r="K9" s="57"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003d7#0000</v>
+        <v>obj_00320#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -23147,7 +23412,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -23157,19 +23422,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42152</v>
+        <v>42297</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.2017818903544466E-2</v>
+        <v>2.2345826184464138E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!P10</f>
@@ -23179,7 +23444,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00410#0000</v>
+        <v>obj_002f5#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -23199,7 +23464,7 @@
       <c r="A11" s="91"/>
       <c r="B11" s="21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>18</v>
@@ -23209,19 +23474,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42159</v>
+        <v>42304</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.2011223633656232E-2</v>
+        <v>2.2355877666206472E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!P11</f>
@@ -23231,7 +23496,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003c6#0000</v>
+        <v>obj_0030a#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -23251,7 +23516,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -23261,19 +23526,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>42170</v>
+        <v>42314</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.1999838624744035E-2</v>
+        <v>2.2344989089276488E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!P12</f>
@@ -23283,7 +23548,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003da#0000</v>
+        <v>obj_002f0#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
@@ -23303,7 +23568,7 @@
       <c r="A13" s="91"/>
       <c r="B13" s="21">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>20</v>
@@ -23313,19 +23578,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42199</v>
+        <v>42345</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.1947102717034796E-2</v>
+        <v>2.2191601990653856E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!P13</f>
@@ -23335,7 +23600,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003fa#0000</v>
+        <v>obj_0031a#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -23355,7 +23620,7 @@
       <c r="A14" s="91"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -23365,19 +23630,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42230</v>
+        <v>42375</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.1847511478243424E-2</v>
+        <v>2.1940460252358279E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!P14</f>
@@ -23387,7 +23652,7 @@
       <c r="K14" s="57"/>
       <c r="L14" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0041a#0000</v>
+        <v>obj_0031d#0000</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -23516,34 +23781,34 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20" t="str">
         <f>Contribution!D19</f>
-        <v>M5</v>
+        <v>Z5</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F19)</f>
-        <v>42167</v>
+        <v>42349</v>
       </c>
       <c r="F19" s="45">
         <f>_xll.qlASXdate(C19)</f>
-        <v>42167</v>
+        <v>42349</v>
       </c>
       <c r="G19" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F19,Trigger)</f>
-        <v>42261</v>
+        <v>42440</v>
       </c>
       <c r="H19" s="110">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.835000000069556</v>
+        <v>97.955000000012348</v>
       </c>
       <c r="I19" s="39" t="str">
         <f>Contribution!P19</f>
-        <v>AUD3MM5</v>
+        <v>AUD3MZ5</v>
       </c>
       <c r="J19" s="39" t="str">
         <f>"YBA"&amp;C19</f>
-        <v>YBAM5</v>
+        <v>YBAZ5</v>
       </c>
       <c r="K19" s="57"/>
       <c r="L19" s="91"/>
@@ -23566,34 +23831,34 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="str">
         <f>Contribution!D20</f>
-        <v>U5</v>
+        <v>H6</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="48">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F20)</f>
-        <v>42258</v>
+        <v>42440</v>
       </c>
       <c r="F20" s="48">
         <f>_xll.qlASXdate(C20)</f>
-        <v>42258</v>
+        <v>42440</v>
       </c>
       <c r="G20" s="48">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F20,Trigger)</f>
-        <v>42349</v>
+        <v>42535</v>
       </c>
       <c r="H20" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.880000000223305</v>
+        <v>98.084999999999994</v>
       </c>
       <c r="I20" s="38" t="str">
         <f>Contribution!P20</f>
-        <v>AUD3MU5</v>
+        <v>AUD3MH6</v>
       </c>
       <c r="J20" s="38" t="str">
         <f t="shared" ref="J20:J24" si="2">"YBA"&amp;C20</f>
-        <v>YBAU5</v>
+        <v>YBAH6</v>
       </c>
       <c r="K20" s="91"/>
       <c r="L20" s="91"/>
@@ -23616,34 +23881,34 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="str">
         <f>Contribution!D21</f>
-        <v>Z5</v>
+        <v>M6</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E21" s="48">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F21)</f>
-        <v>42349</v>
+        <v>42531</v>
       </c>
       <c r="F21" s="48">
         <f>_xll.qlASXdate(C21)</f>
-        <v>42349</v>
+        <v>42531</v>
       </c>
       <c r="G21" s="48">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F21,Trigger)</f>
-        <v>42440</v>
+        <v>42625</v>
       </c>
       <c r="H21" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.874999999999957</v>
+        <v>98.145000000000081</v>
       </c>
       <c r="I21" s="38" t="str">
         <f>Contribution!P21</f>
-        <v>AUD3MZ5</v>
+        <v>AUD3MM6</v>
       </c>
       <c r="J21" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>YBAZ5</v>
+        <v>YBAM6</v>
       </c>
       <c r="K21" s="91"/>
       <c r="L21" s="91"/>
@@ -23666,34 +23931,34 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21" t="str">
         <f>Contribution!D22</f>
-        <v>H6</v>
+        <v>U6</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="48">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F22)</f>
-        <v>42440</v>
+        <v>42622</v>
       </c>
       <c r="F22" s="48">
         <f>_xll.qlASXdate(C22)</f>
-        <v>42440</v>
+        <v>42622</v>
       </c>
       <c r="G22" s="48">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F22,Trigger)</f>
-        <v>42535</v>
+        <v>42713</v>
       </c>
       <c r="H22" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.833655104418995</v>
+        <v>98.253944328547036</v>
       </c>
       <c r="I22" s="38" t="str">
         <f>Contribution!P22</f>
-        <v>AUD3MH6</v>
+        <v>AUD3MU6</v>
       </c>
       <c r="J22" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>YBAH6</v>
+        <v>YBAU6</v>
       </c>
       <c r="K22" s="91"/>
       <c r="L22" s="91"/>
@@ -23716,34 +23981,34 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21" t="str">
         <f>Contribution!D23</f>
-        <v>M6</v>
+        <v>Z6</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="48">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F23)</f>
-        <v>42531</v>
+        <v>42713</v>
       </c>
       <c r="F23" s="48">
         <f>_xll.qlASXdate(C23)</f>
-        <v>42531</v>
+        <v>42713</v>
       </c>
       <c r="G23" s="48">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F23,Trigger)</f>
-        <v>42625</v>
+        <v>42803</v>
       </c>
       <c r="H23" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.737337286937702</v>
+        <v>98.108035951040364</v>
       </c>
       <c r="I23" s="38" t="str">
         <f>Contribution!P23</f>
-        <v>AUD3MM6</v>
+        <v>AUD3MZ6</v>
       </c>
       <c r="J23" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>YBAM6</v>
+        <v>YBAZ6</v>
       </c>
       <c r="K23" s="91"/>
       <c r="L23" s="91"/>
@@ -23766,34 +24031,34 @@
       <c r="B24" s="22"/>
       <c r="C24" s="22" t="str">
         <f>Contribution!D24</f>
-        <v>U6</v>
+        <v>H7</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="49">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F24)</f>
-        <v>42622</v>
+        <v>42804</v>
       </c>
       <c r="F24" s="49">
         <f>_xll.qlASXdate(C24)</f>
-        <v>42622</v>
+        <v>42804</v>
       </c>
       <c r="G24" s="49">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F24,Trigger)</f>
-        <v>42713</v>
+        <v>42899</v>
       </c>
       <c r="H24" s="112">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.639755173888304</v>
+        <v>97.992027484877312</v>
       </c>
       <c r="I24" s="40" t="str">
         <f>Contribution!P24</f>
-        <v>AUD3MU6</v>
+        <v>AUD3MH7</v>
       </c>
       <c r="J24" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>YBAU6</v>
+        <v>YBAH7</v>
       </c>
       <c r="K24" s="91"/>
       <c r="L24" s="90" t="s">
@@ -23830,26 +24095,26 @@
       </c>
       <c r="E25" s="45">
         <f>EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42229</v>
+        <v>42373</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.1853780555942632E-2</v>
+        <v>2.1978301294579141E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="91"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,"AudBBSW3M",DiscountingCurve,,Trigger)</f>
-        <v>obj_003fe#0000</v>
+        <v>obj_002e7#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="30" t="s">
@@ -23882,26 +24147,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" ref="E26:E27" si="3">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42321</v>
+        <v>42464</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.1573637204896572E-2</v>
+        <v>2.0967999047673318E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="57"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00421#0000</v>
+        <v>obj_00309#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="58"/>
@@ -23928,26 +24193,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="3"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42415</v>
+        <v>42555</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.1449088829674837E-2</v>
+        <v>2.0348338222023227E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="91"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00429#0000</v>
+        <v>obj_002e2#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="91"/>
@@ -23974,19 +24239,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="4">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42503</v>
+        <v>42647</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.1449999999721938E-2</v>
+        <v>1.977500000012223E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!P28</f>
@@ -23999,7 +24264,7 @@
       <c r="K28" s="91"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00420#0000</v>
+        <v>obj_002e9#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
@@ -24026,26 +24291,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42688</v>
+        <v>42828</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.1903110671669605E-2</v>
+        <v>1.9375405772391795E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="91"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00419#0000</v>
+        <v>obj_00308#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="57"/>
@@ -24072,19 +24337,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="5">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42870</v>
+        <v>43011</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.259999999971183E-2</v>
+        <v>1.9674999999150167E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!P30</f>
@@ -24097,7 +24362,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003f2#0000</v>
+        <v>obj_00310#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
@@ -24124,19 +24389,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>43234</v>
+        <v>43375</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.4124999999965088E-2</v>
+        <v>2.0399999999249799E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!P31</f>
@@ -24149,7 +24414,7 @@
       <c r="K31" s="57"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ea#0000</v>
+        <v>obj_002ea#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
@@ -24176,19 +24441,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43598</v>
+        <v>43740</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>2.5620130101907057E-2</v>
+        <v>2.1544548700303034E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!P32</f>
@@ -24198,7 +24463,7 @@
       <c r="K32" s="57"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d3#0000</v>
+        <v>obj_00312#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
@@ -24225,19 +24490,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43964</v>
+        <v>44106</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>2.7110410622996031E-2</v>
+        <v>2.291225551787527E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!P33</f>
@@ -24247,7 +24512,7 @@
       <c r="K33" s="57"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e8#0000</v>
+        <v>obj_00318#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="57"/>
@@ -24274,26 +24539,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44329</v>
+        <v>44474</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>2.8497423214145452E-2</v>
+        <v>2.4249651840130622E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="57"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003cc#0000</v>
+        <v>obj_002ef#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
@@ -24320,19 +24585,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44694</v>
+        <v>44838</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>2.9717299436776815E-2</v>
+        <v>2.5434886592631514E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!P35</f>
@@ -24342,7 +24607,7 @@
       <c r="K35" s="57"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00416#0000</v>
+        <v>obj_00314#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="57"/>
@@ -24369,26 +24634,26 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>45061</v>
+        <v>45202</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.076109241153031E-2</v>
+        <v>2.6456687050743315E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="57"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c9#0000</v>
+        <v>obj_00329#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
@@ -24415,26 +24680,26 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45425</v>
+        <v>45567</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.166579597260278E-2</v>
+        <v>2.7343849754588229E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="57"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00412#0000</v>
+        <v>obj_00307#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
@@ -24461,19 +24726,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45790</v>
+        <v>45932</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.2484107479366378E-2</v>
+        <v>2.8117579998211163E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!P38</f>
@@ -24483,7 +24748,7 @@
       <c r="K38" s="57"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0041f#0000</v>
+        <v>obj_002e3#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="57"/>
@@ -24510,19 +24775,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46520</v>
+        <v>46665</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.3898081511269662E-2</v>
+        <v>2.9396551679417536E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!P39</f>
@@ -24532,7 +24797,7 @@
       <c r="K39" s="57"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00403#0000</v>
+        <v>obj_002fe#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="57"/>
@@ -24559,19 +24824,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47616</v>
+        <v>47758</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.5324118173613812E-2</v>
+        <v>3.0786840322286343E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!P40</f>
@@ -24581,7 +24846,7 @@
       <c r="K40" s="57"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d4#0000</v>
+        <v>obj_002e4#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="57"/>
@@ -24608,19 +24873,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49443</v>
+        <v>49584</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>3.6303461428665987E-2</v>
+        <v>3.2114740531119949E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!P41</f>
@@ -24630,7 +24895,7 @@
       <c r="K41" s="57"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00424#0000</v>
+        <v>obj_00323#0000</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -24657,19 +24922,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51270</v>
+        <v>51411</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>3.6700333068239416E-2</v>
+        <v>3.248718852132898E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!P42</f>
@@ -24679,7 +24944,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00400#0000</v>
+        <v>obj_00305#0000</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -24706,19 +24971,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="5"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>53097</v>
+        <v>53238</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>3.6874075997212305E-2</v>
+        <v>3.2388300340975139E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!P43</f>
@@ -24728,7 +24993,7 @@
       <c r="K43" s="57"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ee#0000</v>
+        <v>obj_002e6#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -27002,19 +27267,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.2565312915547673E-2</v>
+        <v>2.3864485472947086E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!S6</f>
@@ -27024,7 +27289,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_0042e#0057</v>
+        <v>obj_0032d#0000</v>
       </c>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
@@ -27044,7 +27309,7 @@
       <c r="A7" s="91"/>
       <c r="B7" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>97</v>
@@ -27054,19 +27319,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.2566096923109909E-2</v>
+        <v>2.3841634612456905E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!S7</f>
@@ -27101,7 +27366,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -27111,19 +27376,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42139</v>
+        <v>42284</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,AllTriggers)</f>
-        <v>2.2566897999798385E-2</v>
+        <v>2.383613970717624E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!S8</f>
@@ -27133,7 +27398,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003cb#0000</v>
+        <v>obj_002db#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -27159,7 +27424,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -27169,19 +27434,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42145</v>
+        <v>42290</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,AllTriggers)</f>
-        <v>2.2571107040510859E-2</v>
+        <v>2.3801645606599094E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!S9</f>
@@ -27191,7 +27456,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0041e#0000</v>
+        <v>obj_002e1#0000</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="91"/>
@@ -27211,7 +27476,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -27221,19 +27486,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42152</v>
+        <v>42297</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,AllTriggers)</f>
-        <v>2.2572777614852657E-2</v>
+        <v>2.3752524954515471E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!S10</f>
@@ -27243,7 +27508,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003c2#0000</v>
+        <v>obj_002f7#0000</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="91"/>
@@ -27263,7 +27528,7 @@
       <c r="A11" s="91"/>
       <c r="B11" s="21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>18</v>
@@ -27273,19 +27538,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42159</v>
+        <v>42304</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,AllTriggers)</f>
-        <v>2.2573240168286123E-2</v>
+        <v>2.369663171052715E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!S11</f>
@@ -27295,7 +27560,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00411#0000</v>
+        <v>obj_002e8#0000</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="91"/>
@@ -27315,7 +27580,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -27325,19 +27590,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>42170</v>
+        <v>42314</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,AllTriggers)</f>
-        <v>2.257425255903639E-2</v>
+        <v>2.3607463538354839E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!S12</f>
@@ -27347,7 +27612,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003fc#0000</v>
+        <v>obj_002de#0000</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="91"/>
@@ -27367,7 +27632,7 @@
       <c r="A13" s="91"/>
       <c r="B13" s="21">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>20</v>
@@ -27377,19 +27642,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42199</v>
+        <v>42345</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,AllTriggers)</f>
-        <v>2.2551986181245223E-2</v>
+        <v>2.3281239238505096E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!S13</f>
@@ -27399,7 +27664,7 @@
       <c r="K13" s="41"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00408#0000</v>
+        <v>obj_00306#0000</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="57"/>
@@ -27419,7 +27684,7 @@
       <c r="A14" s="91"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -27429,19 +27694,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42230</v>
+        <v>42375</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,AllTriggers)</f>
-        <v>2.2485219814407483E-2</v>
+        <v>2.3010520829807757E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!S14</f>
@@ -27451,7 +27716,7 @@
       <c r="K14" s="41"/>
       <c r="L14" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003d2#0000</v>
+        <v>obj_002fc#0000</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="57"/>
@@ -27471,7 +27736,7 @@
       <c r="A15" s="91"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
@@ -27481,19 +27746,19 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
-        <v>42261</v>
+        <v>42408</v>
       </c>
       <c r="H15" s="47">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,AllTriggers)</f>
-        <v>2.2431109450210387E-2</v>
+        <v>2.2814140715717895E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!S15</f>
@@ -27503,7 +27768,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C15="ON",C15="TN",C15="SN"),"1D",IF(C15="SW","1W",C15)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00407#0000</v>
+        <v>obj_002fa#0000</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="57"/>
@@ -27523,7 +27788,7 @@
       <c r="A16" s="91"/>
       <c r="B16" s="21">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>23</v>
@@ -27533,19 +27798,19 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42291</v>
+        <v>42436</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,AllTriggers)</f>
-        <v>2.2362350105273397E-2</v>
+        <v>2.2565921992635931E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!S16</f>
@@ -27555,7 +27820,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C16="ON",C16="TN",C16="SN"),"1D",IF(C16="SW","1W",C16)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00414#0000</v>
+        <v>obj_0030e#0000</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="57"/>
@@ -27585,19 +27850,19 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17,Trigger)</f>
-        <v>42138</v>
+        <v>42283</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17,Trigger)</f>
-        <v>42324</v>
+        <v>42466</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,AllTriggers)</f>
-        <v>2.2363324900027806E-2</v>
+        <v>2.2313362373113623E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!S17</f>
@@ -27607,7 +27872,7 @@
       <c r="K17" s="41"/>
       <c r="L17" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C17="ON",C17="TN",C17="SN"),"1D",IF(C17="SW","1W",C17)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00401#0000</v>
+        <v>obj_00322#0000</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="57"/>
@@ -27831,26 +28096,26 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" ref="E25:E27" si="2">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42229</v>
+        <v>42373</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,AllTriggers)</f>
-        <v>2.2489114161497365E-2</v>
+        <v>2.3064023590940209E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="41"/>
       <c r="L25" s="88" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e6#0000</v>
+        <v>obj_00303#0000</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="87" t="s">
@@ -27883,26 +28148,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="2"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42321</v>
+        <v>42464</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,AllTriggers)</f>
-        <v>2.2364865594942624E-2</v>
+        <v>2.2368654721266878E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d6#0000</v>
+        <v>obj_00316#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -27929,26 +28194,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="2"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42415</v>
+        <v>42555</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,AllTriggers)</f>
-        <v>2.2316105253620939E-2</v>
+        <v>2.1615269288874382E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003fd#0000</v>
+        <v>obj_002f3#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -27975,19 +28240,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="3">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42503</v>
+        <v>42647</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,AllTriggers)</f>
-        <v>2.2420987069177566E-2</v>
+        <v>2.1152400348908744E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!S28</f>
@@ -27997,7 +28262,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00405#0000</v>
+        <v>obj_002f4#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="57"/>
@@ -28024,26 +28289,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="3"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42688</v>
+        <v>42828</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,AllTriggers)</f>
-        <v>2.3000936065354177E-2</v>
+        <v>2.0893224489471656E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e3#0000</v>
+        <v>obj_002f1#0000</v>
       </c>
       <c r="M29" s="85"/>
       <c r="N29" s="57"/>
@@ -28070,19 +28335,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="4">EvaluationDate</f>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42870</v>
+        <v>43011</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,AllTriggers)</f>
-        <v>2.3737672332174942E-2</v>
+        <v>2.1011632653685011E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!S30</f>
@@ -28092,7 +28357,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00413#0000</v>
+        <v>obj_0031c#0000</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="57"/>
@@ -28119,19 +28384,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>43234</v>
+        <v>43375</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,AllTriggers)</f>
-        <v>2.5222678067579451E-2</v>
+        <v>2.1632909141032199E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!S31</f>
@@ -28141,7 +28406,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e9#0000</v>
+        <v>obj_00321#0000</v>
       </c>
       <c r="M31" s="85"/>
       <c r="N31" s="57"/>
@@ -28168,19 +28433,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43598</v>
+        <v>43740</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,AllTriggers)</f>
-        <v>2.670000000000294E-2</v>
+        <v>2.2674999999681995E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!S32</f>
@@ -28193,7 +28458,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c4#0000</v>
+        <v>obj_00300#0000</v>
       </c>
       <c r="M32" s="85"/>
       <c r="N32" s="57"/>
@@ -28220,19 +28485,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43964</v>
+        <v>44106</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,AllTriggers)</f>
-        <v>2.8175000000002674E-2</v>
+        <v>2.3974999999901464E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!S33</f>
@@ -28245,7 +28510,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0040f#0000</v>
+        <v>obj_002e0#0000</v>
       </c>
       <c r="M33" s="85"/>
       <c r="N33" s="57"/>
@@ -28272,19 +28537,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44329</v>
+        <v>44474</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,AllTriggers)</f>
-        <v>2.952500000000231E-2</v>
+        <v>2.5262499999927468E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38" t="str">
@@ -28294,7 +28559,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003f5#0000</v>
+        <v>obj_002dd#0000</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="57"/>
@@ -28321,19 +28586,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44694</v>
+        <v>44838</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,AllTriggers)</f>
-        <v>3.0725000000002015E-2</v>
+        <v>2.6437500000062515E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!S35</f>
@@ -28346,7 +28611,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0040d#0000</v>
+        <v>obj_00311#0000</v>
       </c>
       <c r="M35" s="85"/>
       <c r="N35" s="57"/>
@@ -28373,19 +28638,19 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>45061</v>
+        <v>45202</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,AllTriggers)</f>
-        <v>3.1800000000001799E-2</v>
+        <v>2.7449999999762071E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38" t="str">
@@ -28395,7 +28660,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d5#0000</v>
+        <v>obj_00301#0000</v>
       </c>
       <c r="M36" s="85"/>
       <c r="N36" s="57"/>
@@ -28422,19 +28687,19 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45425</v>
+        <v>45567</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,AllTriggers)</f>
-        <v>3.2625000000001347E-2</v>
+        <v>2.8312499999999827E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38" t="str">
@@ -28444,7 +28709,7 @@
       <c r="K37" s="41"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0041b#0000</v>
+        <v>obj_002fd#0000</v>
       </c>
       <c r="M37" s="85"/>
       <c r="N37" s="57"/>
@@ -28471,19 +28736,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45790</v>
+        <v>45932</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,AllTriggers)</f>
-        <v>3.3399999999963612E-2</v>
+        <v>2.9049999999997234E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!S38</f>
@@ -28496,7 +28761,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c5#0000</v>
+        <v>obj_00315#0000</v>
       </c>
       <c r="M38" s="85"/>
       <c r="N38" s="57"/>
@@ -28523,19 +28788,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46520</v>
+        <v>46665</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,AllTriggers)</f>
-        <v>3.4749999999973337E-2</v>
+        <v>3.0249999999997963E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!S39</f>
@@ -28548,7 +28813,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00422#0000</v>
+        <v>obj_0031e#0000</v>
       </c>
       <c r="M39" s="85"/>
       <c r="N39" s="57"/>
@@ -28575,19 +28840,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47616</v>
+        <v>47758</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,AllTriggers)</f>
-        <v>3.6100000000001672E-2</v>
+        <v>3.1524999999998853E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!S40</f>
@@ -28600,7 +28865,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003f7#0000</v>
+        <v>obj_002f9#0000</v>
       </c>
       <c r="M40" s="85"/>
       <c r="N40" s="57"/>
@@ -28627,19 +28892,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49443</v>
+        <v>49584</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,AllTriggers)</f>
-        <v>3.7024999999975779E-2</v>
+        <v>3.277500000003257E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!S41</f>
@@ -28652,7 +28917,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0041d#0000</v>
+        <v>obj_00328#0000</v>
       </c>
       <c r="M41" s="57"/>
       <c r="N41" s="57"/>
@@ -28679,19 +28944,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51270</v>
+        <v>51411</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,AllTriggers)</f>
-        <v>3.7374999999978994E-2</v>
+        <v>3.3074999999981348E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!S42</f>
@@ -28704,7 +28969,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00402#0000</v>
+        <v>obj_002eb#0000</v>
       </c>
       <c r="M42" s="57"/>
       <c r="N42" s="57"/>
@@ -28731,19 +28996,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="4"/>
-        <v>42136</v>
+        <v>42278</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>42137</v>
+        <v>42279</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>53097</v>
+        <v>53238</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,AllTriggers)</f>
-        <v>3.7499999999999992E-2</v>
+        <v>3.2900000000051978E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!S43</f>
@@ -28756,7 +29021,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00426#0000</v>
+        <v>obj_00326#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
